--- a/Masses_Summary_Statistics_2.0.xlsx
+++ b/Masses_Summary_Statistics_2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FTrevisan\Documents\GitHub\13C-Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8EECBB-1134-4A31-B7DB-AFC23C1BEEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0558669-843B-4E3E-8987-B4703FD72CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Masses_Summary_Statistics_2.0" sheetId="1" r:id="rId1"/>
@@ -725,7 +725,7 @@
   </si>
   <si>
     <r>
-      <t>Supp. Table 2:</t>
+      <t>Table S4:</t>
     </r>
     <r>
       <rPr>
@@ -1523,7 +1523,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1597,26 +1597,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1965,7 +1961,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1975,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G254"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1985,8 +1981,8 @@
     <col min="2" max="2" width="8.7265625" style="18"/>
     <col min="3" max="3" width="15.54296875" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="18"/>
-    <col min="5" max="5" width="20.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.81640625" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.35">
@@ -2001,22 +1997,22 @@
       <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="38" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="41"/>
+      <c r="A5" s="38"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
@@ -2031,13 +2027,13 @@
       <c r="D6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="36" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2054,13 +2050,13 @@
       <c r="D7" s="18">
         <v>3</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="36">
         <v>0.1153</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="36">
         <v>9.8534260000000002E-3</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="36">
         <v>5.6888779999999996E-3</v>
       </c>
     </row>
@@ -2077,13 +2073,13 @@
       <c r="D8" s="18">
         <v>3</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>0.1153</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="36">
         <v>9.8534260000000002E-3</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="36">
         <v>5.6888779999999996E-3</v>
       </c>
     </row>
@@ -2100,13 +2096,13 @@
       <c r="D9" s="18">
         <v>3</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="36">
         <v>3.1333329999999999E-3</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="36">
         <v>6.6583300000000001E-4</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="36">
         <v>3.8441899999999999E-4</v>
       </c>
     </row>
@@ -2123,13 +2119,13 @@
       <c r="D10" s="18">
         <v>3</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>3.1333329999999999E-3</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="36">
         <v>6.6583300000000001E-4</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="36">
         <v>3.8441899999999999E-4</v>
       </c>
     </row>
@@ -2146,13 +2142,13 @@
       <c r="D11" s="18">
         <v>3</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="36">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="36">
         <v>2.12838E-3</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="36">
         <v>1.2288209999999999E-3</v>
       </c>
     </row>
@@ -2169,13 +2165,13 @@
       <c r="D12" s="18">
         <v>3</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="36">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="36">
         <v>2.12838E-3</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="36">
         <v>1.2288209999999999E-3</v>
       </c>
     </row>
@@ -2192,13 +2188,13 @@
       <c r="D13" s="18">
         <v>3</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="36">
         <v>4.2933332999999997E-2</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="36">
         <v>4.6436339999999998E-3</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="36">
         <v>2.6810029999999999E-3</v>
       </c>
     </row>
@@ -2215,13 +2211,13 @@
       <c r="D14" s="18">
         <v>3</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="36">
         <v>4.2933332999999997E-2</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="36">
         <v>4.6436339999999998E-3</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="36">
         <v>2.6810029999999999E-3</v>
       </c>
     </row>
@@ -2238,13 +2234,13 @@
       <c r="D15" s="18">
         <v>7</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="36">
         <v>7.6157142999999997E-2</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="36">
         <v>2.3020487999999999E-2</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="36">
         <v>8.7009270000000007E-3</v>
       </c>
     </row>
@@ -2261,13 +2257,13 @@
       <c r="D16" s="18">
         <v>7</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="36">
         <v>5.7385713999999997E-2</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="36">
         <v>1.4774125000000001E-2</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="36">
         <v>5.5840940000000004E-3</v>
       </c>
     </row>
@@ -2284,13 +2280,13 @@
       <c r="D17" s="18">
         <v>7</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="36">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="36">
         <v>1.4841719999999999E-2</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="36">
         <v>5.6096430000000001E-3</v>
       </c>
     </row>
@@ -2307,13 +2303,13 @@
       <c r="D18" s="18">
         <v>7</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="36">
         <v>0.1124</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="36">
         <v>2.2905458E-2</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="36">
         <v>8.6574489999999994E-3</v>
       </c>
     </row>
@@ -2330,13 +2326,13 @@
       <c r="D19" s="18">
         <v>7</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="36">
         <v>0.28385714299999998</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="36">
         <v>0.125589276</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="36">
         <v>4.7468283999999999E-2</v>
       </c>
     </row>
@@ -2353,13 +2349,13 @@
       <c r="D20" s="18">
         <v>7</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="36">
         <v>0.466028571</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="36">
         <v>0.10669413799999999</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="36">
         <v>4.0326594E-2</v>
       </c>
     </row>
@@ -2376,13 +2372,13 @@
       <c r="D21" s="18">
         <v>7</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="36">
         <v>1.3414285999999999E-2</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="36">
         <v>4.4581120000000002E-3</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="36">
         <v>1.685008E-3</v>
       </c>
     </row>
@@ -2399,13 +2395,13 @@
       <c r="D22" s="18">
         <v>7</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="36">
         <v>2.1928571000000001E-2</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="36">
         <v>4.3771050000000001E-3</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="36">
         <v>1.6543899999999999E-3</v>
       </c>
     </row>
@@ -2422,13 +2418,13 @@
       <c r="D23" s="18">
         <v>7</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="36">
         <v>0.18954285700000001</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="36">
         <v>3.9810503999999997E-2</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="36">
         <v>1.5046956E-2</v>
       </c>
     </row>
@@ -2445,13 +2441,13 @@
       <c r="D24" s="18">
         <v>7</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="36">
         <v>0.24941428600000001</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="36">
         <v>5.5646037000000002E-2</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="36">
         <v>2.1032225000000002E-2</v>
       </c>
     </row>
@@ -2468,13 +2464,13 @@
       <c r="D25" s="18">
         <v>7</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="36">
         <v>0.48417142899999999</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="36">
         <v>0.164603045</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="36">
         <v>6.2214103E-2</v>
       </c>
     </row>
@@ -2491,13 +2487,13 @@
       <c r="D26" s="18">
         <v>7</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="36">
         <v>0.73691428599999997</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="36">
         <v>0.21573967699999999</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="36">
         <v>8.1541932999999997E-2</v>
       </c>
     </row>
@@ -2514,13 +2510,13 @@
       <c r="D27" s="18">
         <v>7</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="36">
         <v>5.6857139999999997E-3</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="36">
         <v>1.70042E-3</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="36">
         <v>6.4269800000000003E-4</v>
       </c>
     </row>
@@ -2537,13 +2533,13 @@
       <c r="D28" s="18">
         <v>7</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="36">
         <v>6.0685714000000002E-2</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="36">
         <v>6.343876E-3</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="36">
         <v>2.3977600000000001E-3</v>
       </c>
     </row>
@@ -2560,13 +2556,13 @@
       <c r="D29" s="18">
         <v>7</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="36">
         <v>0.17101428599999999</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="36">
         <v>1.9018362E-2</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="36">
         <v>7.1882650000000001E-3</v>
       </c>
     </row>
@@ -2583,13 +2579,13 @@
       <c r="D30" s="18">
         <v>7</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="36">
         <v>0.72427142899999997</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="36">
         <v>7.8584237000000001E-2</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="36">
         <v>2.9702050000000001E-2</v>
       </c>
     </row>
@@ -2606,13 +2602,13 @@
       <c r="D31" s="18">
         <v>7</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="36">
         <v>0.195285714</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="36">
         <v>3.3592430999999999E-2</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="36">
         <v>1.2696746E-2</v>
       </c>
     </row>
@@ -2629,13 +2625,13 @@
       <c r="D32" s="18">
         <v>7</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="36">
         <v>0.42874285699999998</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="36">
         <v>7.2850665999999994E-2</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="36">
         <v>2.7534963999999999E-2</v>
       </c>
     </row>
@@ -2652,13 +2648,13 @@
       <c r="D33" s="18">
         <v>7</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="36">
         <v>0.25274285699999999</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="36">
         <v>0.120633423</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="36">
         <v>4.5595148000000002E-2</v>
       </c>
     </row>
@@ -2675,13 +2671,13 @@
       <c r="D34" s="18">
         <v>7</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="36">
         <v>0.93165714300000002</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="36">
         <v>0.31515151299999999</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="36">
         <v>0.119116076</v>
       </c>
     </row>
@@ -2698,13 +2694,13 @@
       <c r="D35" s="18">
         <v>7</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="36">
         <v>0.51232857099999995</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="36">
         <v>0.201926577</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="36">
         <v>7.6321072000000004E-2</v>
       </c>
     </row>
@@ -2721,13 +2717,13 @@
       <c r="D36" s="18">
         <v>7</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="36">
         <v>1.1436714290000001</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="36">
         <v>0.425158859</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="36">
         <v>0.16069494400000001</v>
       </c>
     </row>
@@ -2744,13 +2740,13 @@
       <c r="D37" s="18">
         <v>7</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="36">
         <v>1.23E-2</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="36">
         <v>5.5898720000000001E-3</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="36">
         <v>2.1127730000000001E-3</v>
       </c>
     </row>
@@ -2767,13 +2763,13 @@
       <c r="D38" s="18">
         <v>7</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="36">
         <v>9.7785713999999996E-2</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="36">
         <v>3.1830301999999998E-2</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="36">
         <v>1.2030723E-2</v>
       </c>
     </row>
@@ -2790,13 +2786,13 @@
       <c r="D39" s="18">
         <v>7</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="36">
         <v>1.4242856999999999E-2</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="36">
         <v>5.3450470000000003E-3</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="36">
         <v>2.0202380000000002E-3</v>
       </c>
     </row>
@@ -2813,13 +2809,13 @@
       <c r="D40" s="18">
         <v>7</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="36">
         <v>0.13789999999999999</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="36">
         <v>3.2089354E-2</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="36">
         <v>1.2128636E-2</v>
       </c>
     </row>
@@ -2836,13 +2832,13 @@
       <c r="D41" s="18">
         <v>7</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="36">
         <v>0.188342857</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="36">
         <v>5.1322538000000001E-2</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="36">
         <v>1.9398096E-2</v>
       </c>
     </row>
@@ -2859,13 +2855,13 @@
       <c r="D42" s="18">
         <v>7</v>
       </c>
-      <c r="E42" s="38">
+      <c r="E42" s="36">
         <v>0.443814286</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="36">
         <v>0.10800733699999999</v>
       </c>
-      <c r="G42" s="38">
+      <c r="G42" s="36">
         <v>4.0822935999999997E-2</v>
       </c>
     </row>
@@ -2882,13 +2878,13 @@
       <c r="D43" s="18">
         <v>7</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="36">
         <v>0.43901428599999998</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="36">
         <v>0.106121431</v>
       </c>
-      <c r="G43" s="38">
+      <c r="G43" s="36">
         <v>4.0110131E-2</v>
       </c>
     </row>
@@ -2905,13 +2901,13 @@
       <c r="D44" s="18">
         <v>7</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="36">
         <v>1.2221714290000001</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="36">
         <v>0.23748622899999999</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44" s="36">
         <v>8.9761357E-2</v>
       </c>
     </row>
@@ -2928,13 +2924,13 @@
       <c r="D45" s="18">
         <v>7</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="36">
         <v>0.57447142900000003</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="36">
         <v>0.21382414699999999</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="36">
         <v>8.0817930999999996E-2</v>
       </c>
     </row>
@@ -2951,13 +2947,13 @@
       <c r="D46" s="18">
         <v>7</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="36">
         <v>1.488657143</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="36">
         <v>0.83793367399999996</v>
       </c>
-      <c r="G46" s="38">
+      <c r="G46" s="36">
         <v>0.31670915999999999</v>
       </c>
     </row>
@@ -2974,13 +2970,13 @@
       <c r="D47" s="18">
         <v>7</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="36">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="36">
         <v>8.6350060000000006E-3</v>
       </c>
-      <c r="G47" s="38">
+      <c r="G47" s="36">
         <v>3.2637260000000002E-3</v>
       </c>
     </row>
@@ -2997,13 +2993,13 @@
       <c r="D48" s="18">
         <v>7</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="36">
         <v>0.22771428599999999</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="36">
         <v>2.6273715E-2</v>
       </c>
-      <c r="G48" s="38">
+      <c r="G48" s="36">
         <v>9.9305309999999994E-3</v>
       </c>
     </row>
@@ -3020,13 +3016,13 @@
       <c r="D49" s="18">
         <v>7</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49" s="36">
         <v>0.24008571400000001</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="36">
         <v>6.3079142000000005E-2</v>
       </c>
-      <c r="G49" s="38">
+      <c r="G49" s="36">
         <v>2.3841674E-2</v>
       </c>
     </row>
@@ -3043,13 +3039,13 @@
       <c r="D50" s="18">
         <v>7</v>
       </c>
-      <c r="E50" s="38">
+      <c r="E50" s="36">
         <v>0.62438571399999998</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50" s="36">
         <v>0.11016871</v>
       </c>
-      <c r="G50" s="38">
+      <c r="G50" s="36">
         <v>4.1639859000000001E-2</v>
       </c>
     </row>
@@ -3066,13 +3062,13 @@
       <c r="D51" s="18">
         <v>7</v>
       </c>
-      <c r="E51" s="38">
+      <c r="E51" s="36">
         <v>0.60531428600000003</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="36">
         <v>0.221091922</v>
       </c>
-      <c r="G51" s="38">
+      <c r="G51" s="36">
         <v>8.3564892000000002E-2</v>
       </c>
     </row>
@@ -3089,13 +3085,13 @@
       <c r="D52" s="18">
         <v>7</v>
       </c>
-      <c r="E52" s="38">
+      <c r="E52" s="36">
         <v>1.807871429</v>
       </c>
-      <c r="F52" s="38">
+      <c r="F52" s="36">
         <v>0.82551128299999998</v>
       </c>
-      <c r="G52" s="38">
+      <c r="G52" s="36">
         <v>0.31201393700000002</v>
       </c>
     </row>
@@ -3112,13 +3108,13 @@
       <c r="D53" s="18">
         <v>7</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E53" s="36">
         <v>0.83308571399999998</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="36">
         <v>0.4084274</v>
       </c>
-      <c r="G53" s="38">
+      <c r="G53" s="36">
         <v>0.15437104700000001</v>
       </c>
     </row>
@@ -3135,13 +3131,13 @@
       <c r="D54" s="18">
         <v>7</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54" s="36">
         <v>1.9610000000000001</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="36">
         <v>0.62041954399999999</v>
       </c>
-      <c r="G54" s="38">
+      <c r="G54" s="36">
         <v>0.234496546</v>
       </c>
     </row>
@@ -3158,13 +3154,13 @@
       <c r="D55" s="18">
         <v>7</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E55" s="36">
         <v>0.274528571</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55" s="36">
         <v>0.10835982800000001</v>
       </c>
-      <c r="G55" s="38">
+      <c r="G55" s="36">
         <v>4.0956165000000003E-2</v>
       </c>
     </row>
@@ -3181,13 +3177,13 @@
       <c r="D56" s="18">
         <v>7</v>
       </c>
-      <c r="E56" s="38">
+      <c r="E56" s="36">
         <v>0.93240000000000001</v>
       </c>
-      <c r="F56" s="38">
+      <c r="F56" s="36">
         <v>0.20460821900000001</v>
       </c>
-      <c r="G56" s="38">
+      <c r="G56" s="36">
         <v>7.7334637999999997E-2</v>
       </c>
     </row>
@@ -3204,13 +3200,13 @@
       <c r="D57" s="18">
         <v>7</v>
       </c>
-      <c r="E57" s="38">
+      <c r="E57" s="36">
         <v>1.416071429</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F57" s="36">
         <v>0.79515813700000004</v>
       </c>
-      <c r="G57" s="38">
+      <c r="G57" s="36">
         <v>0.300541526</v>
       </c>
     </row>
@@ -3227,13 +3223,13 @@
       <c r="D58" s="18">
         <v>7</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E58" s="36">
         <v>2.6404142859999999</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F58" s="36">
         <v>0.32060475399999999</v>
       </c>
-      <c r="G58" s="38">
+      <c r="G58" s="36">
         <v>0.121177207</v>
       </c>
     </row>
@@ -3250,13 +3246,13 @@
       <c r="D59" s="18">
         <v>7</v>
       </c>
-      <c r="E59" s="38">
+      <c r="E59" s="36">
         <v>0.72130000000000005</v>
       </c>
-      <c r="F59" s="38">
+      <c r="F59" s="36">
         <v>0.25703202800000002</v>
       </c>
-      <c r="G59" s="38">
+      <c r="G59" s="36">
         <v>9.7148974999999999E-2</v>
       </c>
     </row>
@@ -3273,13 +3269,13 @@
       <c r="D60" s="18">
         <v>7</v>
       </c>
-      <c r="E60" s="38">
+      <c r="E60" s="36">
         <v>2.5309571430000002</v>
       </c>
-      <c r="F60" s="38">
+      <c r="F60" s="36">
         <v>1.216462728</v>
       </c>
-      <c r="G60" s="38">
+      <c r="G60" s="36">
         <v>0.45977969400000002</v>
       </c>
     </row>
@@ -3296,13 +3292,13 @@
       <c r="D61" s="18">
         <v>7</v>
       </c>
-      <c r="E61" s="38">
+      <c r="E61" s="36">
         <v>8.2942856999999995E-2</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="36">
         <v>2.5697590999999999E-2</v>
       </c>
-      <c r="G61" s="38">
+      <c r="G61" s="36">
         <v>9.7127759999999994E-3</v>
       </c>
     </row>
@@ -3319,13 +3315,13 @@
       <c r="D62" s="18">
         <v>7</v>
       </c>
-      <c r="E62" s="38">
+      <c r="E62" s="36">
         <v>0.60534285700000001</v>
       </c>
-      <c r="F62" s="38">
+      <c r="F62" s="36">
         <v>0.141912225</v>
       </c>
-      <c r="G62" s="38">
+      <c r="G62" s="36">
         <v>5.3637778999999997E-2</v>
       </c>
     </row>
@@ -3342,13 +3338,13 @@
       <c r="D63" s="18">
         <v>7</v>
       </c>
-      <c r="E63" s="38">
+      <c r="E63" s="36">
         <v>0.36424285699999998</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="36">
         <v>7.4525629999999995E-2</v>
       </c>
-      <c r="G63" s="38">
+      <c r="G63" s="36">
         <v>2.8168039999999998E-2</v>
       </c>
     </row>
@@ -3365,13 +3361,13 @@
       <c r="D64" s="18">
         <v>7</v>
       </c>
-      <c r="E64" s="38">
+      <c r="E64" s="36">
         <v>1.130642857</v>
       </c>
-      <c r="F64" s="38">
+      <c r="F64" s="36">
         <v>0.15411662100000001</v>
       </c>
-      <c r="G64" s="38">
+      <c r="G64" s="36">
         <v>5.8250607000000003E-2</v>
       </c>
     </row>
@@ -3388,13 +3384,13 @@
       <c r="D65" s="18">
         <v>7</v>
       </c>
-      <c r="E65" s="38">
+      <c r="E65" s="36">
         <v>1.073842857</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F65" s="36">
         <v>0.90116986499999996</v>
       </c>
-      <c r="G65" s="38">
+      <c r="G65" s="36">
         <v>0.34061019300000001</v>
       </c>
     </row>
@@ -3411,13 +3407,13 @@
       <c r="D66" s="18">
         <v>7</v>
       </c>
-      <c r="E66" s="38">
+      <c r="E66" s="36">
         <v>2.858085714</v>
       </c>
-      <c r="F66" s="38">
+      <c r="F66" s="36">
         <v>1.1136996029999999</v>
       </c>
-      <c r="G66" s="38">
+      <c r="G66" s="36">
         <v>0.42093888299999999</v>
       </c>
     </row>
@@ -3434,13 +3430,13 @@
       <c r="D67" s="18">
         <v>7</v>
       </c>
-      <c r="E67" s="38">
+      <c r="E67" s="36">
         <v>0.91285714299999998</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="36">
         <v>0.34243976999999998</v>
       </c>
-      <c r="G67" s="38">
+      <c r="G67" s="36">
         <v>0.12943006700000001</v>
       </c>
     </row>
@@ -3457,13 +3453,13 @@
       <c r="D68" s="18">
         <v>7</v>
       </c>
-      <c r="E68" s="38">
+      <c r="E68" s="36">
         <v>3.0428857140000001</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="36">
         <v>1.1655724409999999</v>
       </c>
-      <c r="G68" s="38">
+      <c r="G68" s="36">
         <v>0.44054497300000001</v>
       </c>
     </row>
@@ -3480,13 +3476,13 @@
       <c r="D69" s="18">
         <v>7</v>
       </c>
-      <c r="E69" s="38">
+      <c r="E69" s="36">
         <v>0.134285714</v>
       </c>
-      <c r="F69" s="38">
+      <c r="F69" s="36">
         <v>4.0966833000000001E-2</v>
       </c>
-      <c r="G69" s="38">
+      <c r="G69" s="36">
         <v>1.5484008E-2</v>
       </c>
     </row>
@@ -3503,13 +3499,13 @@
       <c r="D70" s="18">
         <v>7</v>
       </c>
-      <c r="E70" s="38">
+      <c r="E70" s="36">
         <v>1.0111428570000001</v>
       </c>
-      <c r="F70" s="38">
+      <c r="F70" s="36">
         <v>0.25726417600000001</v>
       </c>
-      <c r="G70" s="38">
+      <c r="G70" s="36">
         <v>9.7236718999999999E-2</v>
       </c>
     </row>
@@ -3526,13 +3522,13 @@
       <c r="D71" s="18">
         <v>7</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E71" s="36">
         <v>0.41637142900000002</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71" s="36">
         <v>0.10927506100000001</v>
       </c>
-      <c r="G71" s="38">
+      <c r="G71" s="36">
         <v>4.1302090999999999E-2</v>
       </c>
     </row>
@@ -3549,13 +3545,13 @@
       <c r="D72" s="18">
         <v>7</v>
       </c>
-      <c r="E72" s="38">
+      <c r="E72" s="36">
         <v>1.442471429</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="36">
         <v>0.16763523599999999</v>
       </c>
-      <c r="G72" s="38">
+      <c r="G72" s="36">
         <v>6.3360163999999997E-2</v>
       </c>
     </row>
@@ -3572,13 +3568,13 @@
       <c r="D73" s="18">
         <v>7</v>
       </c>
-      <c r="E73" s="38">
+      <c r="E73" s="36">
         <v>1.0307428569999999</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="36">
         <v>0.37958728800000002</v>
       </c>
-      <c r="G73" s="38">
+      <c r="G73" s="36">
         <v>0.143470509</v>
       </c>
     </row>
@@ -3595,13 +3591,13 @@
       <c r="D74" s="18">
         <v>7</v>
       </c>
-      <c r="E74" s="38">
+      <c r="E74" s="36">
         <v>4.0138999999999996</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74" s="36">
         <v>1.642166207</v>
       </c>
-      <c r="G74" s="38">
+      <c r="G74" s="36">
         <v>0.62068048499999995</v>
       </c>
     </row>
@@ -3618,13 +3614,13 @@
       <c r="D75" s="18">
         <v>7</v>
       </c>
-      <c r="E75" s="38">
+      <c r="E75" s="36">
         <v>0.28062857099999999</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="36">
         <v>4.7800095000000001E-2</v>
       </c>
-      <c r="G75" s="38">
+      <c r="G75" s="36">
         <v>1.8066737999999999E-2</v>
       </c>
     </row>
@@ -3641,13 +3637,13 @@
       <c r="D76" s="18">
         <v>7</v>
       </c>
-      <c r="E76" s="38">
+      <c r="E76" s="36">
         <v>1.918328571</v>
       </c>
-      <c r="F76" s="38">
+      <c r="F76" s="36">
         <v>0.26469925500000002</v>
       </c>
-      <c r="G76" s="38">
+      <c r="G76" s="36">
         <v>0.100046915</v>
       </c>
     </row>
@@ -3664,13 +3660,13 @@
       <c r="D77" s="18">
         <v>7</v>
       </c>
-      <c r="E77" s="38">
+      <c r="E77" s="36">
         <v>2.1861428570000001</v>
       </c>
-      <c r="F77" s="38">
+      <c r="F77" s="36">
         <v>0.96045917599999997</v>
       </c>
-      <c r="G77" s="38">
+      <c r="G77" s="36">
         <v>0.36301944600000002</v>
       </c>
     </row>
@@ -3687,13 +3683,13 @@
       <c r="D78" s="18">
         <v>7</v>
       </c>
-      <c r="E78" s="38">
+      <c r="E78" s="36">
         <v>5.7879857140000004</v>
       </c>
-      <c r="F78" s="38">
+      <c r="F78" s="36">
         <v>1.4084219529999999</v>
       </c>
-      <c r="G78" s="38">
+      <c r="G78" s="36">
         <v>0.53233346100000001</v>
       </c>
     </row>
@@ -3710,13 +3706,13 @@
       <c r="D79" s="18">
         <v>7</v>
       </c>
-      <c r="E79" s="38">
+      <c r="E79" s="36">
         <v>0.61952857100000003</v>
       </c>
-      <c r="F79" s="38">
+      <c r="F79" s="36">
         <v>9.8734842000000003E-2</v>
       </c>
-      <c r="G79" s="38">
+      <c r="G79" s="36">
         <v>3.7318262999999997E-2</v>
       </c>
     </row>
@@ -3733,13 +3729,13 @@
       <c r="D80" s="18">
         <v>7</v>
       </c>
-      <c r="E80" s="38">
+      <c r="E80" s="36">
         <v>1.821942857</v>
       </c>
-      <c r="F80" s="38">
+      <c r="F80" s="36">
         <v>0.26850574700000002</v>
       </c>
-      <c r="G80" s="38">
+      <c r="G80" s="36">
         <v>0.10148563300000001</v>
       </c>
     </row>
@@ -3756,13 +3752,13 @@
       <c r="D81" s="18">
         <v>7</v>
       </c>
-      <c r="E81" s="38">
+      <c r="E81" s="36">
         <v>2.1696285710000001</v>
       </c>
-      <c r="F81" s="38">
+      <c r="F81" s="36">
         <v>1.164000634</v>
       </c>
-      <c r="G81" s="38">
+      <c r="G81" s="36">
         <v>0.43995088599999999</v>
       </c>
     </row>
@@ -3779,13 +3775,13 @@
       <c r="D82" s="18">
         <v>7</v>
       </c>
-      <c r="E82" s="38">
+      <c r="E82" s="36">
         <v>5.2629428569999996</v>
       </c>
-      <c r="F82" s="38">
+      <c r="F82" s="36">
         <v>1.20514078</v>
       </c>
-      <c r="G82" s="38">
+      <c r="G82" s="36">
         <v>0.45550040000000003</v>
       </c>
     </row>
@@ -3802,13 +3798,13 @@
       <c r="D83" s="18">
         <v>7</v>
       </c>
-      <c r="E83" s="38">
+      <c r="E83" s="36">
         <v>1.2641857139999999</v>
       </c>
-      <c r="F83" s="38">
+      <c r="F83" s="36">
         <v>0.57317525899999999</v>
       </c>
-      <c r="G83" s="38">
+      <c r="G83" s="36">
         <v>0.216639885</v>
       </c>
     </row>
@@ -3825,13 +3821,13 @@
       <c r="D84" s="18">
         <v>7</v>
       </c>
-      <c r="E84" s="38">
+      <c r="E84" s="36">
         <v>7.6429142859999999</v>
       </c>
-      <c r="F84" s="38">
+      <c r="F84" s="36">
         <v>2.7923876550000002</v>
       </c>
-      <c r="G84" s="38">
+      <c r="G84" s="36">
         <v>1.0554233289999999</v>
       </c>
     </row>
@@ -3848,13 +3844,13 @@
       <c r="D85" s="18">
         <v>7</v>
       </c>
-      <c r="E85" s="38">
+      <c r="E85" s="36">
         <v>0.46060000000000001</v>
       </c>
-      <c r="F85" s="38">
+      <c r="F85" s="36">
         <v>0.20347864800000001</v>
       </c>
-      <c r="G85" s="38">
+      <c r="G85" s="36">
         <v>7.6907699999999996E-2</v>
       </c>
     </row>
@@ -3871,13 +3867,13 @@
       <c r="D86" s="18">
         <v>7</v>
       </c>
-      <c r="E86" s="38">
+      <c r="E86" s="36">
         <v>2.7797285710000001</v>
       </c>
-      <c r="F86" s="38">
+      <c r="F86" s="36">
         <v>0.93425897000000002</v>
       </c>
-      <c r="G86" s="38">
+      <c r="G86" s="36">
         <v>0.35311669899999998</v>
       </c>
     </row>
@@ -3894,13 +3890,13 @@
       <c r="D87" s="18">
         <v>7</v>
       </c>
-      <c r="E87" s="38">
+      <c r="E87" s="36">
         <v>0.18737142900000001</v>
       </c>
-      <c r="F87" s="38">
+      <c r="F87" s="36">
         <v>6.1144957E-2</v>
       </c>
-      <c r="G87" s="38">
+      <c r="G87" s="36">
         <v>2.3110621000000001E-2</v>
       </c>
     </row>
@@ -3917,13 +3913,13 @@
       <c r="D88" s="18">
         <v>7</v>
       </c>
-      <c r="E88" s="38">
+      <c r="E88" s="36">
         <v>0.39445714300000001</v>
       </c>
-      <c r="F88" s="38">
+      <c r="F88" s="36">
         <v>5.1806300999999999E-2</v>
       </c>
-      <c r="G88" s="38">
+      <c r="G88" s="36">
         <v>1.9580941000000001E-2</v>
       </c>
     </row>
@@ -3940,13 +3936,13 @@
       <c r="D89" s="18">
         <v>7</v>
       </c>
-      <c r="E89" s="38">
+      <c r="E89" s="36">
         <v>0.24391428600000001</v>
       </c>
-      <c r="F89" s="38">
+      <c r="F89" s="36">
         <v>0.107291603</v>
       </c>
-      <c r="G89" s="38">
+      <c r="G89" s="36">
         <v>4.0552414000000002E-2</v>
       </c>
     </row>
@@ -3963,13 +3959,13 @@
       <c r="D90" s="18">
         <v>7</v>
       </c>
-      <c r="E90" s="38">
+      <c r="E90" s="36">
         <v>0.81274285700000004</v>
       </c>
-      <c r="F90" s="38">
+      <c r="F90" s="36">
         <v>0.117557147</v>
       </c>
-      <c r="G90" s="38">
+      <c r="G90" s="36">
         <v>4.4432424999999998E-2</v>
       </c>
     </row>
@@ -3986,13 +3982,13 @@
       <c r="D91" s="18">
         <v>7</v>
       </c>
-      <c r="E91" s="38">
+      <c r="E91" s="36">
         <v>0.254957143</v>
       </c>
-      <c r="F91" s="38">
+      <c r="F91" s="36">
         <v>0.10249383500000001</v>
       </c>
-      <c r="G91" s="38">
+      <c r="G91" s="36">
         <v>3.8739028000000002E-2</v>
       </c>
     </row>
@@ -4009,13 +4005,13 @@
       <c r="D92" s="18">
         <v>7</v>
       </c>
-      <c r="E92" s="38">
+      <c r="E92" s="36">
         <v>0.591342857</v>
       </c>
-      <c r="F92" s="38">
+      <c r="F92" s="36">
         <v>0.29298339499999998</v>
       </c>
-      <c r="G92" s="38">
+      <c r="G92" s="36">
         <v>0.110737314</v>
       </c>
     </row>
@@ -4032,13 +4028,13 @@
       <c r="D93" s="18">
         <v>7</v>
       </c>
-      <c r="E93" s="38">
+      <c r="E93" s="36">
         <v>1.6542857000000001E-2</v>
       </c>
-      <c r="F93" s="38">
+      <c r="F93" s="36">
         <v>3.8621480000000001E-3</v>
       </c>
-      <c r="G93" s="38">
+      <c r="G93" s="36">
         <v>1.4597550000000001E-3</v>
       </c>
     </row>
@@ -4055,13 +4051,13 @@
       <c r="D94" s="18">
         <v>7</v>
       </c>
-      <c r="E94" s="38">
+      <c r="E94" s="36">
         <v>0.12761428599999999</v>
       </c>
-      <c r="F94" s="38">
+      <c r="F94" s="36">
         <v>4.3919373999999997E-2</v>
       </c>
-      <c r="G94" s="38">
+      <c r="G94" s="36">
         <v>1.6599962999999999E-2</v>
       </c>
     </row>
@@ -4078,13 +4074,13 @@
       <c r="D95" s="18">
         <v>7</v>
       </c>
-      <c r="E95" s="38">
+      <c r="E95" s="36">
         <v>1.7757143E-2</v>
       </c>
-      <c r="F95" s="38">
+      <c r="F95" s="36">
         <v>6.0613139999999999E-3</v>
       </c>
-      <c r="G95" s="38">
+      <c r="G95" s="36">
         <v>2.2909610000000002E-3</v>
       </c>
     </row>
@@ -4101,13 +4097,13 @@
       <c r="D96" s="18">
         <v>7</v>
       </c>
-      <c r="E96" s="38">
+      <c r="E96" s="36">
         <v>0.150671429</v>
       </c>
-      <c r="F96" s="38">
+      <c r="F96" s="36">
         <v>2.6898991000000001E-2</v>
       </c>
-      <c r="G96" s="38">
+      <c r="G96" s="36">
         <v>1.0166863E-2</v>
       </c>
     </row>
@@ -4124,13 +4120,13 @@
       <c r="D97" s="18">
         <v>7</v>
       </c>
-      <c r="E97" s="38">
+      <c r="E97" s="36">
         <v>0.1968</v>
       </c>
-      <c r="F97" s="38">
+      <c r="F97" s="36">
         <v>4.6129960999999997E-2</v>
       </c>
-      <c r="G97" s="38">
+      <c r="G97" s="36">
         <v>1.7435487E-2</v>
       </c>
     </row>
@@ -4147,13 +4143,13 @@
       <c r="D98" s="18">
         <v>7</v>
       </c>
-      <c r="E98" s="38">
+      <c r="E98" s="36">
         <v>0.475114286</v>
       </c>
-      <c r="F98" s="38">
+      <c r="F98" s="36">
         <v>0.106392879</v>
       </c>
-      <c r="G98" s="38">
+      <c r="G98" s="36">
         <v>4.0212729000000003E-2</v>
       </c>
     </row>
@@ -4170,13 +4166,13 @@
       <c r="D99" s="18">
         <v>7</v>
       </c>
-      <c r="E99" s="38">
+      <c r="E99" s="36">
         <v>0.50241428600000004</v>
       </c>
-      <c r="F99" s="38">
+      <c r="F99" s="36">
         <v>0.14536565900000001</v>
       </c>
-      <c r="G99" s="38">
+      <c r="G99" s="36">
         <v>5.4943054999999998E-2</v>
       </c>
     </row>
@@ -4193,13 +4189,13 @@
       <c r="D100" s="18">
         <v>7</v>
       </c>
-      <c r="E100" s="38">
+      <c r="E100" s="36">
         <v>1.343114286</v>
       </c>
-      <c r="F100" s="38">
+      <c r="F100" s="36">
         <v>0.20694536699999999</v>
       </c>
-      <c r="G100" s="38">
+      <c r="G100" s="36">
         <v>7.8217995999999998E-2</v>
       </c>
     </row>
@@ -4216,13 +4212,13 @@
       <c r="D101" s="18">
         <v>7</v>
       </c>
-      <c r="E101" s="38">
+      <c r="E101" s="36">
         <v>0.56772857099999996</v>
       </c>
-      <c r="F101" s="38">
+      <c r="F101" s="36">
         <v>0.188487132</v>
       </c>
-      <c r="G101" s="38">
+      <c r="G101" s="36">
         <v>7.1241440000000003E-2</v>
       </c>
     </row>
@@ -4239,13 +4235,13 @@
       <c r="D102" s="18">
         <v>7</v>
       </c>
-      <c r="E102" s="38">
+      <c r="E102" s="36">
         <v>1.589571429</v>
       </c>
-      <c r="F102" s="38">
+      <c r="F102" s="36">
         <v>0.47204747499999999</v>
       </c>
-      <c r="G102" s="38">
+      <c r="G102" s="36">
         <v>0.17841717500000001</v>
       </c>
     </row>
@@ -4262,13 +4258,13 @@
       <c r="D103" s="18">
         <v>7</v>
       </c>
-      <c r="E103" s="38">
+      <c r="E103" s="36">
         <v>3.4471428999999998E-2</v>
       </c>
-      <c r="F103" s="38">
+      <c r="F103" s="36">
         <v>5.5784449999999996E-3</v>
       </c>
-      <c r="G103" s="38">
+      <c r="G103" s="36">
         <v>2.1084540000000001E-3</v>
       </c>
     </row>
@@ -4285,13 +4281,13 @@
       <c r="D104" s="18">
         <v>7</v>
       </c>
-      <c r="E104" s="38">
+      <c r="E104" s="36">
         <v>0.22855714299999999</v>
       </c>
-      <c r="F104" s="38">
+      <c r="F104" s="36">
         <v>2.5167628000000001E-2</v>
       </c>
-      <c r="G104" s="38">
+      <c r="G104" s="36">
         <v>9.5124690000000008E-3</v>
       </c>
     </row>
@@ -4308,13 +4304,13 @@
       <c r="D105" s="18">
         <v>7</v>
       </c>
-      <c r="E105" s="38">
+      <c r="E105" s="36">
         <v>0.24012857100000001</v>
       </c>
-      <c r="F105" s="38">
+      <c r="F105" s="36">
         <v>5.6775161999999997E-2</v>
       </c>
-      <c r="G105" s="38">
+      <c r="G105" s="36">
         <v>2.1458993999999999E-2</v>
       </c>
     </row>
@@ -4331,13 +4327,13 @@
       <c r="D106" s="18">
         <v>7</v>
       </c>
-      <c r="E106" s="38">
+      <c r="E106" s="36">
         <v>0.6552</v>
       </c>
-      <c r="F106" s="38">
+      <c r="F106" s="36">
         <v>0.116194435</v>
       </c>
-      <c r="G106" s="38">
+      <c r="G106" s="36">
         <v>4.3917367999999998E-2</v>
       </c>
     </row>
@@ -4354,13 +4350,13 @@
       <c r="D107" s="18">
         <v>7</v>
       </c>
-      <c r="E107" s="38">
+      <c r="E107" s="36">
         <v>0.76802857099999999</v>
       </c>
-      <c r="F107" s="38">
+      <c r="F107" s="36">
         <v>0.34680650099999999</v>
       </c>
-      <c r="G107" s="38">
+      <c r="G107" s="36">
         <v>0.131080536</v>
       </c>
     </row>
@@ -4377,13 +4373,13 @@
       <c r="D108" s="18">
         <v>7</v>
       </c>
-      <c r="E108" s="38">
+      <c r="E108" s="36">
         <v>1.9395714289999999</v>
       </c>
-      <c r="F108" s="38">
+      <c r="F108" s="36">
         <v>0.64631214999999997</v>
       </c>
-      <c r="G108" s="38">
+      <c r="G108" s="36">
         <v>0.24428303100000001</v>
       </c>
     </row>
@@ -4400,13 +4396,13 @@
       <c r="D109" s="18">
         <v>7</v>
       </c>
-      <c r="E109" s="38">
+      <c r="E109" s="36">
         <v>0.56842857099999999</v>
       </c>
-      <c r="F109" s="38">
+      <c r="F109" s="36">
         <v>0.14800305999999999</v>
       </c>
-      <c r="G109" s="38">
+      <c r="G109" s="36">
         <v>5.5939899000000001E-2</v>
       </c>
     </row>
@@ -4423,13 +4419,13 @@
       <c r="D110" s="18">
         <v>7</v>
       </c>
-      <c r="E110" s="38">
+      <c r="E110" s="36">
         <v>2.0342285709999999</v>
       </c>
-      <c r="F110" s="38">
+      <c r="F110" s="36">
         <v>0.31364151899999998</v>
       </c>
-      <c r="G110" s="38">
+      <c r="G110" s="36">
         <v>0.11854535099999999</v>
       </c>
     </row>
@@ -4446,13 +4442,13 @@
       <c r="D111" s="18">
         <v>7</v>
       </c>
-      <c r="E111" s="38">
+      <c r="E111" s="36">
         <v>0.33479999999999999</v>
       </c>
-      <c r="F111" s="38">
+      <c r="F111" s="36">
         <v>9.7818471000000004E-2</v>
       </c>
-      <c r="G111" s="38">
+      <c r="G111" s="36">
         <v>3.6971906999999998E-2</v>
       </c>
     </row>
@@ -4469,13 +4465,13 @@
       <c r="D112" s="18">
         <v>7</v>
       </c>
-      <c r="E112" s="38">
+      <c r="E112" s="36">
         <v>0.89959999999999996</v>
       </c>
-      <c r="F112" s="38">
+      <c r="F112" s="36">
         <v>0.23420570700000001</v>
       </c>
-      <c r="G112" s="38">
+      <c r="G112" s="36">
         <v>8.8521436999999994E-2</v>
       </c>
     </row>
@@ -4492,13 +4488,13 @@
       <c r="D113" s="18">
         <v>7</v>
       </c>
-      <c r="E113" s="38">
+      <c r="E113" s="36">
         <v>0.71924285700000001</v>
       </c>
-      <c r="F113" s="38">
+      <c r="F113" s="36">
         <v>0.26846235499999999</v>
       </c>
-      <c r="G113" s="38">
+      <c r="G113" s="36">
         <v>0.10146923300000001</v>
       </c>
     </row>
@@ -4515,13 +4511,13 @@
       <c r="D114" s="18">
         <v>7</v>
       </c>
-      <c r="E114" s="38">
+      <c r="E114" s="36">
         <v>2.0936142860000002</v>
       </c>
-      <c r="F114" s="38">
+      <c r="F114" s="36">
         <v>0.31847291100000003</v>
       </c>
-      <c r="G114" s="38">
+      <c r="G114" s="36">
         <v>0.12037144599999999</v>
       </c>
     </row>
@@ -4538,13 +4534,13 @@
       <c r="D115" s="18">
         <v>7</v>
       </c>
-      <c r="E115" s="38">
+      <c r="E115" s="36">
         <v>0.71867142900000003</v>
       </c>
-      <c r="F115" s="38">
+      <c r="F115" s="36">
         <v>0.25294479399999997</v>
       </c>
-      <c r="G115" s="38">
+      <c r="G115" s="36">
         <v>9.5604146000000001E-2</v>
       </c>
     </row>
@@ -4561,13 +4557,13 @@
       <c r="D116" s="18">
         <v>7</v>
       </c>
-      <c r="E116" s="38">
+      <c r="E116" s="36">
         <v>2.5164571429999998</v>
       </c>
-      <c r="F116" s="38">
+      <c r="F116" s="36">
         <v>0.92178088499999999</v>
       </c>
-      <c r="G116" s="38">
+      <c r="G116" s="36">
         <v>0.34840042599999999</v>
       </c>
     </row>
@@ -4584,13 +4580,13 @@
       <c r="D117" s="18">
         <v>7</v>
       </c>
-      <c r="E117" s="38">
+      <c r="E117" s="36">
         <v>9.4085714000000001E-2</v>
       </c>
-      <c r="F117" s="38">
+      <c r="F117" s="36">
         <v>1.2639545E-2</v>
       </c>
-      <c r="G117" s="38">
+      <c r="G117" s="36">
         <v>4.7772989999999996E-3</v>
       </c>
     </row>
@@ -4607,13 +4603,13 @@
       <c r="D118" s="18">
         <v>7</v>
       </c>
-      <c r="E118" s="38">
+      <c r="E118" s="36">
         <v>0.44529999999999997</v>
       </c>
-      <c r="F118" s="38">
+      <c r="F118" s="36">
         <v>5.6538099000000001E-2</v>
       </c>
-      <c r="G118" s="38">
+      <c r="G118" s="36">
         <v>2.1369393E-2</v>
       </c>
     </row>
@@ -4630,13 +4626,13 @@
       <c r="D119" s="18">
         <v>7</v>
       </c>
-      <c r="E119" s="38">
+      <c r="E119" s="36">
         <v>0.46754285699999998</v>
       </c>
-      <c r="F119" s="38">
+      <c r="F119" s="36">
         <v>0.25794963900000001</v>
       </c>
-      <c r="G119" s="38">
+      <c r="G119" s="36">
         <v>9.7495798999999994E-2</v>
       </c>
     </row>
@@ -4653,13 +4649,13 @@
       <c r="D120" s="18">
         <v>7</v>
       </c>
-      <c r="E120" s="38">
+      <c r="E120" s="36">
         <v>1.1426285709999999</v>
       </c>
-      <c r="F120" s="38">
+      <c r="F120" s="36">
         <v>0.36348166700000001</v>
       </c>
-      <c r="G120" s="38">
+      <c r="G120" s="36">
         <v>0.13738315700000001</v>
       </c>
     </row>
@@ -4676,13 +4672,13 @@
       <c r="D121" s="18">
         <v>7</v>
       </c>
-      <c r="E121" s="38">
+      <c r="E121" s="36">
         <v>1.1553142860000001</v>
       </c>
-      <c r="F121" s="38">
+      <c r="F121" s="36">
         <v>0.98463565099999995</v>
       </c>
-      <c r="G121" s="38">
+      <c r="G121" s="36">
         <v>0.372157295</v>
       </c>
     </row>
@@ -4699,13 +4695,13 @@
       <c r="D122" s="18">
         <v>7</v>
       </c>
-      <c r="E122" s="38">
+      <c r="E122" s="36">
         <v>2.9146142859999999</v>
       </c>
-      <c r="F122" s="38">
+      <c r="F122" s="36">
         <v>0.98848815300000004</v>
       </c>
-      <c r="G122" s="38">
+      <c r="G122" s="36">
         <v>0.37361340399999998</v>
       </c>
     </row>
@@ -4722,13 +4718,13 @@
       <c r="D123" s="18">
         <v>7</v>
       </c>
-      <c r="E123" s="38">
+      <c r="E123" s="36">
         <v>1.0589999999999999</v>
       </c>
-      <c r="F123" s="38">
+      <c r="F123" s="36">
         <v>0.37017394599999998</v>
       </c>
-      <c r="G123" s="38">
+      <c r="G123" s="36">
         <v>0.1399126</v>
       </c>
     </row>
@@ -4745,13 +4741,13 @@
       <c r="D124" s="18">
         <v>7</v>
       </c>
-      <c r="E124" s="38">
+      <c r="E124" s="36">
         <v>3.245171429</v>
       </c>
-      <c r="F124" s="38">
+      <c r="F124" s="36">
         <v>1.0380386420000001</v>
       </c>
-      <c r="G124" s="38">
+      <c r="G124" s="36">
         <v>0.392341728</v>
       </c>
     </row>
@@ -4768,13 +4764,13 @@
       <c r="D125" s="18">
         <v>7</v>
       </c>
-      <c r="E125" s="38">
+      <c r="E125" s="36">
         <v>0.13039999999999999</v>
       </c>
-      <c r="F125" s="38">
+      <c r="F125" s="36">
         <v>3.7936482000000001E-2</v>
       </c>
-      <c r="G125" s="38">
+      <c r="G125" s="36">
         <v>1.4338642E-2</v>
       </c>
     </row>
@@ -4791,13 +4787,13 @@
       <c r="D126" s="18">
         <v>7</v>
       </c>
-      <c r="E126" s="38">
+      <c r="E126" s="36">
         <v>0.56679999999999997</v>
       </c>
-      <c r="F126" s="38">
+      <c r="F126" s="36">
         <v>9.7085837999999994E-2</v>
       </c>
-      <c r="G126" s="38">
+      <c r="G126" s="36">
         <v>3.6694998E-2</v>
       </c>
     </row>
@@ -4814,13 +4810,13 @@
       <c r="D127" s="18">
         <v>7</v>
       </c>
-      <c r="E127" s="38">
+      <c r="E127" s="36">
         <v>0.35598571400000001</v>
       </c>
-      <c r="F127" s="38">
+      <c r="F127" s="36">
         <v>0.10579806899999999</v>
       </c>
-      <c r="G127" s="38">
+      <c r="G127" s="36">
         <v>3.9987911000000001E-2</v>
       </c>
     </row>
@@ -4837,13 +4833,13 @@
       <c r="D128" s="18">
         <v>7</v>
       </c>
-      <c r="E128" s="38">
+      <c r="E128" s="36">
         <v>1.1783571429999999</v>
       </c>
-      <c r="F128" s="38">
+      <c r="F128" s="36">
         <v>0.21007919</v>
       </c>
-      <c r="G128" s="38">
+      <c r="G128" s="36">
         <v>7.9402470000000003E-2</v>
       </c>
     </row>
@@ -4860,13 +4856,13 @@
       <c r="D129" s="18">
         <v>7</v>
       </c>
-      <c r="E129" s="38">
+      <c r="E129" s="36">
         <v>1.4035714290000001</v>
       </c>
-      <c r="F129" s="38">
+      <c r="F129" s="36">
         <v>0.60231927500000004</v>
       </c>
-      <c r="G129" s="38">
+      <c r="G129" s="36">
         <v>0.22765528700000001</v>
       </c>
     </row>
@@ -4883,13 +4879,13 @@
       <c r="D130" s="18">
         <v>7</v>
       </c>
-      <c r="E130" s="38">
+      <c r="E130" s="36">
         <v>4.0944000000000003</v>
       </c>
-      <c r="F130" s="38">
+      <c r="F130" s="36">
         <v>0.93798758199999999</v>
       </c>
-      <c r="G130" s="38">
+      <c r="G130" s="36">
         <v>0.35452598200000002</v>
       </c>
     </row>
@@ -4906,13 +4902,13 @@
       <c r="D131" s="18">
         <v>7</v>
       </c>
-      <c r="E131" s="38">
+      <c r="E131" s="36">
         <v>0.22392857099999999</v>
       </c>
-      <c r="F131" s="38">
+      <c r="F131" s="36">
         <v>0.106656156</v>
       </c>
-      <c r="G131" s="38">
+      <c r="G131" s="36">
         <v>4.0312238E-2</v>
       </c>
     </row>
@@ -4929,13 +4925,13 @@
       <c r="D132" s="18">
         <v>7</v>
       </c>
-      <c r="E132" s="38">
+      <c r="E132" s="36">
         <v>0.82264285699999995</v>
       </c>
-      <c r="F132" s="38">
+      <c r="F132" s="36">
         <v>0.41490840299999998</v>
       </c>
-      <c r="G132" s="38">
+      <c r="G132" s="36">
         <v>0.15682063600000001</v>
       </c>
     </row>
@@ -4952,13 +4948,13 @@
       <c r="D133" s="18">
         <v>7</v>
       </c>
-      <c r="E133" s="38">
+      <c r="E133" s="36">
         <v>1.2211000000000001</v>
       </c>
-      <c r="F133" s="38">
+      <c r="F133" s="36">
         <v>0.81333105999999999</v>
       </c>
-      <c r="G133" s="38">
+      <c r="G133" s="36">
         <v>0.307410246</v>
       </c>
     </row>
@@ -4975,13 +4971,13 @@
       <c r="D134" s="18">
         <v>7</v>
       </c>
-      <c r="E134" s="38">
+      <c r="E134" s="36">
         <v>4.1010714290000001</v>
       </c>
-      <c r="F134" s="38">
+      <c r="F134" s="36">
         <v>1.123198715</v>
       </c>
-      <c r="G134" s="38">
+      <c r="G134" s="36">
         <v>0.42452920999999999</v>
       </c>
     </row>
@@ -4998,13 +4994,13 @@
       <c r="D135" s="18">
         <v>7</v>
       </c>
-      <c r="E135" s="38">
+      <c r="E135" s="36">
         <v>0.72577142900000002</v>
       </c>
-      <c r="F135" s="38">
+      <c r="F135" s="36">
         <v>0.239108774</v>
       </c>
-      <c r="G135" s="38">
+      <c r="G135" s="36">
         <v>9.0374622000000002E-2</v>
       </c>
     </row>
@@ -5021,13 +5017,13 @@
       <c r="D136" s="18">
         <v>7</v>
       </c>
-      <c r="E136" s="38">
+      <c r="E136" s="36">
         <v>1.7477714289999999</v>
       </c>
-      <c r="F136" s="38">
+      <c r="F136" s="36">
         <v>0.366633767</v>
       </c>
-      <c r="G136" s="38">
+      <c r="G136" s="36">
         <v>0.138574539</v>
       </c>
     </row>
@@ -5044,13 +5040,13 @@
       <c r="D137" s="18">
         <v>7</v>
       </c>
-      <c r="E137" s="38">
+      <c r="E137" s="36">
         <v>2.087928571</v>
       </c>
-      <c r="F137" s="38">
+      <c r="F137" s="36">
         <v>2.139953448</v>
       </c>
-      <c r="G137" s="38">
+      <c r="G137" s="36">
         <v>0.80882637700000004</v>
       </c>
     </row>
@@ -5067,13 +5063,13 @@
       <c r="D138" s="18">
         <v>7</v>
       </c>
-      <c r="E138" s="38">
+      <c r="E138" s="36">
         <v>5.4236714289999997</v>
       </c>
-      <c r="F138" s="38">
+      <c r="F138" s="36">
         <v>2.2879027590000001</v>
       </c>
-      <c r="G138" s="38">
+      <c r="G138" s="36">
         <v>0.86474596000000004</v>
       </c>
     </row>
@@ -5090,13 +5086,13 @@
       <c r="D139" s="18">
         <v>7</v>
       </c>
-      <c r="E139" s="38">
+      <c r="E139" s="36">
         <v>1.721085714</v>
       </c>
-      <c r="F139" s="38">
+      <c r="F139" s="36">
         <v>0.466091859</v>
       </c>
-      <c r="G139" s="38">
+      <c r="G139" s="36">
         <v>0.17616616399999999</v>
       </c>
     </row>
@@ -5113,13 +5109,13 @@
       <c r="D140" s="18">
         <v>7</v>
       </c>
-      <c r="E140" s="38">
+      <c r="E140" s="36">
         <v>5.6069571429999998</v>
       </c>
-      <c r="F140" s="38">
+      <c r="F140" s="36">
         <v>1.314841014</v>
       </c>
-      <c r="G140" s="38">
+      <c r="G140" s="36">
         <v>0.49696319100000003</v>
       </c>
     </row>
@@ -5136,13 +5132,13 @@
       <c r="D141" s="18">
         <v>7</v>
       </c>
-      <c r="E141" s="38">
+      <c r="E141" s="36">
         <v>0.29965714300000001</v>
       </c>
-      <c r="F141" s="38">
+      <c r="F141" s="36">
         <v>0.13754097400000001</v>
       </c>
-      <c r="G141" s="38">
+      <c r="G141" s="36">
         <v>5.1985601999999999E-2</v>
       </c>
     </row>
@@ -5159,13 +5155,13 @@
       <c r="D142" s="18">
         <v>7</v>
       </c>
-      <c r="E142" s="38">
+      <c r="E142" s="36">
         <v>0.94730000000000003</v>
       </c>
-      <c r="F142" s="38">
+      <c r="F142" s="36">
         <v>0.348454665</v>
       </c>
-      <c r="G142" s="38">
+      <c r="G142" s="36">
         <v>0.13170348400000001</v>
       </c>
     </row>
@@ -5182,13 +5178,13 @@
       <c r="D143" s="18">
         <v>7</v>
       </c>
-      <c r="E143" s="38">
+      <c r="E143" s="36">
         <v>0.15090000000000001</v>
       </c>
-      <c r="F143" s="38">
+      <c r="F143" s="36">
         <v>4.8396487000000002E-2</v>
       </c>
-      <c r="G143" s="38">
+      <c r="G143" s="36">
         <v>1.8292152999999998E-2</v>
       </c>
     </row>
@@ -5205,13 +5201,13 @@
       <c r="D144" s="18">
         <v>7</v>
       </c>
-      <c r="E144" s="38">
+      <c r="E144" s="36">
         <v>0.30852857099999997</v>
       </c>
-      <c r="F144" s="38">
+      <c r="F144" s="36">
         <v>7.2089243999999997E-2</v>
       </c>
-      <c r="G144" s="38">
+      <c r="G144" s="36">
         <v>2.7247173E-2</v>
       </c>
     </row>
@@ -5228,13 +5224,13 @@
       <c r="D145" s="18">
         <v>7</v>
       </c>
-      <c r="E145" s="38">
+      <c r="E145" s="36">
         <v>0.271242857</v>
       </c>
-      <c r="F145" s="38">
+      <c r="F145" s="36">
         <v>7.1205730999999994E-2</v>
       </c>
-      <c r="G145" s="38">
+      <c r="G145" s="36">
         <v>2.6913237E-2</v>
       </c>
     </row>
@@ -5251,13 +5247,13 @@
       <c r="D146" s="18">
         <v>7</v>
       </c>
-      <c r="E146" s="38">
+      <c r="E146" s="36">
         <v>0.87797142900000003</v>
       </c>
-      <c r="F146" s="38">
+      <c r="F146" s="36">
         <v>0.14172186000000001</v>
       </c>
-      <c r="G146" s="38">
+      <c r="G146" s="36">
         <v>5.3565828000000003E-2</v>
       </c>
     </row>
@@ -5274,13 +5270,13 @@
       <c r="D147" s="18">
         <v>7</v>
       </c>
-      <c r="E147" s="38">
+      <c r="E147" s="36">
         <v>0.380328571</v>
       </c>
-      <c r="F147" s="38">
+      <c r="F147" s="36">
         <v>0.16470454100000001</v>
       </c>
-      <c r="G147" s="38">
+      <c r="G147" s="36">
         <v>6.2252465E-2</v>
       </c>
     </row>
@@ -5297,13 +5293,13 @@
       <c r="D148" s="18">
         <v>7</v>
       </c>
-      <c r="E148" s="38">
+      <c r="E148" s="36">
         <v>0.69881428599999995</v>
       </c>
-      <c r="F148" s="38">
+      <c r="F148" s="36">
         <v>0.12365216599999999</v>
       </c>
-      <c r="G148" s="38">
+      <c r="G148" s="36">
         <v>4.6736126000000003E-2</v>
       </c>
     </row>
@@ -5320,13 +5316,13 @@
       <c r="D149" s="18">
         <v>7</v>
       </c>
-      <c r="E149" s="38">
+      <c r="E149" s="36">
         <v>1.6614285999999999E-2</v>
       </c>
-      <c r="F149" s="38">
+      <c r="F149" s="36">
         <v>1.0332704E-2</v>
       </c>
-      <c r="G149" s="38">
+      <c r="G149" s="36">
         <v>3.9053949999999999E-3</v>
       </c>
     </row>
@@ -5343,13 +5339,13 @@
       <c r="D150" s="18">
         <v>7</v>
       </c>
-      <c r="E150" s="38">
+      <c r="E150" s="36">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="F150" s="38">
+      <c r="F150" s="36">
         <v>4.0339104000000001E-2</v>
       </c>
-      <c r="G150" s="38">
+      <c r="G150" s="36">
         <v>1.5246747999999999E-2</v>
       </c>
     </row>
@@ -5366,13 +5362,13 @@
       <c r="D151" s="18">
         <v>7</v>
       </c>
-      <c r="E151" s="38">
+      <c r="E151" s="36">
         <v>1.4157143000000001E-2</v>
       </c>
-      <c r="F151" s="38">
+      <c r="F151" s="36">
         <v>2.1454270000000001E-3</v>
       </c>
-      <c r="G151" s="38">
+      <c r="G151" s="36">
         <v>8.1089499999999995E-4</v>
       </c>
     </row>
@@ -5389,13 +5385,13 @@
       <c r="D152" s="18">
         <v>7</v>
       </c>
-      <c r="E152" s="38">
+      <c r="E152" s="36">
         <v>0.14678571400000001</v>
       </c>
-      <c r="F152" s="38">
+      <c r="F152" s="36">
         <v>3.2123170999999999E-2</v>
       </c>
-      <c r="G152" s="38">
+      <c r="G152" s="36">
         <v>1.2141417E-2</v>
       </c>
     </row>
@@ -5412,13 +5408,13 @@
       <c r="D153" s="18">
         <v>7</v>
       </c>
-      <c r="E153" s="38">
+      <c r="E153" s="36">
         <v>0.23768571399999999</v>
       </c>
-      <c r="F153" s="38">
+      <c r="F153" s="36">
         <v>5.6025750999999999E-2</v>
       </c>
-      <c r="G153" s="38">
+      <c r="G153" s="36">
         <v>2.1175743E-2</v>
       </c>
     </row>
@@ -5435,13 +5431,13 @@
       <c r="D154" s="18">
         <v>7</v>
       </c>
-      <c r="E154" s="38">
+      <c r="E154" s="36">
         <v>0.48511428600000001</v>
       </c>
-      <c r="F154" s="38">
+      <c r="F154" s="36">
         <v>8.9782373999999998E-2</v>
       </c>
-      <c r="G154" s="38">
+      <c r="G154" s="36">
         <v>3.3934548000000002E-2</v>
       </c>
     </row>
@@ -5458,13 +5454,13 @@
       <c r="D155" s="18">
         <v>7</v>
       </c>
-      <c r="E155" s="38">
+      <c r="E155" s="36">
         <v>0.42167142899999999</v>
       </c>
-      <c r="F155" s="38">
+      <c r="F155" s="36">
         <v>0.16756470100000001</v>
       </c>
-      <c r="G155" s="38">
+      <c r="G155" s="36">
         <v>6.3333503999999999E-2</v>
       </c>
     </row>
@@ -5481,13 +5477,13 @@
       <c r="D156" s="18">
         <v>7</v>
       </c>
-      <c r="E156" s="38">
+      <c r="E156" s="36">
         <v>1.1824428570000001</v>
       </c>
-      <c r="F156" s="38">
+      <c r="F156" s="36">
         <v>0.42522747999999999</v>
       </c>
-      <c r="G156" s="38">
+      <c r="G156" s="36">
         <v>0.16072088000000001</v>
       </c>
     </row>
@@ -5504,13 +5500,13 @@
       <c r="D157" s="18">
         <v>7</v>
       </c>
-      <c r="E157" s="38">
+      <c r="E157" s="36">
         <v>0.62308571400000001</v>
       </c>
-      <c r="F157" s="38">
+      <c r="F157" s="36">
         <v>0.120945476</v>
       </c>
-      <c r="G157" s="38">
+      <c r="G157" s="36">
         <v>4.5713093000000003E-2</v>
       </c>
     </row>
@@ -5527,13 +5523,13 @@
       <c r="D158" s="18">
         <v>7</v>
       </c>
-      <c r="E158" s="38">
+      <c r="E158" s="36">
         <v>1.660314286</v>
       </c>
-      <c r="F158" s="38">
+      <c r="F158" s="36">
         <v>0.40991593999999998</v>
       </c>
-      <c r="G158" s="38">
+      <c r="G158" s="36">
         <v>0.154933662</v>
       </c>
     </row>
@@ -5550,13 +5546,13 @@
       <c r="D159" s="18">
         <v>7</v>
       </c>
-      <c r="E159" s="38">
+      <c r="E159" s="36">
         <v>4.7128571000000001E-2</v>
       </c>
-      <c r="F159" s="38">
+      <c r="F159" s="36">
         <v>1.1550138999999999E-2</v>
       </c>
-      <c r="G159" s="38">
+      <c r="G159" s="36">
         <v>4.365542E-3</v>
       </c>
     </row>
@@ -5573,13 +5569,13 @@
       <c r="D160" s="18">
         <v>7</v>
       </c>
-      <c r="E160" s="38">
+      <c r="E160" s="36">
         <v>0.246985714</v>
       </c>
-      <c r="F160" s="38">
+      <c r="F160" s="36">
         <v>4.0559850000000001E-2</v>
       </c>
-      <c r="G160" s="38">
+      <c r="G160" s="36">
         <v>1.5330181999999999E-2</v>
       </c>
     </row>
@@ -5596,13 +5592,13 @@
       <c r="D161" s="18">
         <v>7</v>
       </c>
-      <c r="E161" s="38">
+      <c r="E161" s="36">
         <v>0.28764285699999997</v>
       </c>
-      <c r="F161" s="38">
+      <c r="F161" s="36">
         <v>6.7466456999999994E-2</v>
       </c>
-      <c r="G161" s="38">
+      <c r="G161" s="36">
         <v>2.5499924E-2</v>
       </c>
     </row>
@@ -5619,13 +5615,13 @@
       <c r="D162" s="18">
         <v>7</v>
       </c>
-      <c r="E162" s="38">
+      <c r="E162" s="36">
         <v>0.61162857100000001</v>
       </c>
-      <c r="F162" s="38">
+      <c r="F162" s="36">
         <v>0.110309923</v>
       </c>
-      <c r="G162" s="38">
+      <c r="G162" s="36">
         <v>4.1693231999999997E-2</v>
       </c>
     </row>
@@ -5642,13 +5638,13 @@
       <c r="D163" s="18">
         <v>7</v>
       </c>
-      <c r="E163" s="38">
+      <c r="E163" s="36">
         <v>0.69972857099999997</v>
       </c>
-      <c r="F163" s="38">
+      <c r="F163" s="36">
         <v>0.31118305299999999</v>
       </c>
-      <c r="G163" s="38">
+      <c r="G163" s="36">
         <v>0.11761613899999999</v>
       </c>
     </row>
@@ -5665,13 +5661,13 @@
       <c r="D164" s="18">
         <v>7</v>
       </c>
-      <c r="E164" s="38">
+      <c r="E164" s="36">
         <v>2.1213714289999999</v>
       </c>
-      <c r="F164" s="38">
+      <c r="F164" s="36">
         <v>1.1355081819999999</v>
       </c>
-      <c r="G164" s="38">
+      <c r="G164" s="36">
         <v>0.42918175200000003</v>
       </c>
     </row>
@@ -5688,13 +5684,13 @@
       <c r="D165" s="18">
         <v>7</v>
       </c>
-      <c r="E165" s="38">
+      <c r="E165" s="36">
         <v>0.76202857099999999</v>
       </c>
-      <c r="F165" s="38">
+      <c r="F165" s="36">
         <v>0.41774808899999999</v>
       </c>
-      <c r="G165" s="38">
+      <c r="G165" s="36">
         <v>0.15789393600000001</v>
       </c>
     </row>
@@ -5711,13 +5707,13 @@
       <c r="D166" s="18">
         <v>7</v>
       </c>
-      <c r="E166" s="38">
+      <c r="E166" s="36">
         <v>1.7642714289999999</v>
       </c>
-      <c r="F166" s="38">
+      <c r="F166" s="36">
         <v>0.47605353900000003</v>
       </c>
-      <c r="G166" s="38">
+      <c r="G166" s="36">
         <v>0.179931325</v>
       </c>
     </row>
@@ -5734,13 +5730,13 @@
       <c r="D167" s="18">
         <v>7</v>
       </c>
-      <c r="E167" s="38">
+      <c r="E167" s="36">
         <v>0.41941428600000003</v>
       </c>
-      <c r="F167" s="38">
+      <c r="F167" s="36">
         <v>0.11058451399999999</v>
       </c>
-      <c r="G167" s="38">
+      <c r="G167" s="36">
         <v>4.1797017999999998E-2</v>
       </c>
     </row>
@@ -5757,13 +5753,13 @@
       <c r="D168" s="18">
         <v>7</v>
       </c>
-      <c r="E168" s="38">
+      <c r="E168" s="36">
         <v>0.906471429</v>
       </c>
-      <c r="F168" s="38">
+      <c r="F168" s="36">
         <v>0.17852599899999999</v>
       </c>
-      <c r="G168" s="38">
+      <c r="G168" s="36">
         <v>6.7476485000000003E-2</v>
       </c>
     </row>
@@ -5780,13 +5776,13 @@
       <c r="D169" s="18">
         <v>7</v>
       </c>
-      <c r="E169" s="38">
+      <c r="E169" s="36">
         <v>0.96045714299999996</v>
       </c>
-      <c r="F169" s="38">
+      <c r="F169" s="36">
         <v>0.49758508400000001</v>
       </c>
-      <c r="G169" s="38">
+      <c r="G169" s="36">
         <v>0.18806948400000001</v>
       </c>
     </row>
@@ -5803,13 +5799,13 @@
       <c r="D170" s="18">
         <v>7</v>
       </c>
-      <c r="E170" s="38">
+      <c r="E170" s="36">
         <v>2.1313285710000001</v>
       </c>
-      <c r="F170" s="38">
+      <c r="F170" s="36">
         <v>0.427104545</v>
       </c>
-      <c r="G170" s="38">
+      <c r="G170" s="36">
         <v>0.161430344</v>
       </c>
     </row>
@@ -5826,13 +5822,13 @@
       <c r="D171" s="18">
         <v>7</v>
       </c>
-      <c r="E171" s="38">
+      <c r="E171" s="36">
         <v>0.81212857100000002</v>
       </c>
-      <c r="F171" s="38">
+      <c r="F171" s="36">
         <v>0.42452603700000002</v>
       </c>
-      <c r="G171" s="38">
+      <c r="G171" s="36">
         <v>0.16045576</v>
       </c>
     </row>
@@ -5849,13 +5845,13 @@
       <c r="D172" s="18">
         <v>7</v>
       </c>
-      <c r="E172" s="38">
+      <c r="E172" s="36">
         <v>2.4737142859999999</v>
       </c>
-      <c r="F172" s="38">
+      <c r="F172" s="36">
         <v>1.116561066</v>
       </c>
-      <c r="G172" s="38">
+      <c r="G172" s="36">
         <v>0.42202041499999998</v>
       </c>
     </row>
@@ -5872,13 +5868,13 @@
       <c r="D173" s="18">
         <v>7</v>
       </c>
-      <c r="E173" s="38">
+      <c r="E173" s="36">
         <v>9.0914285999999997E-2</v>
       </c>
-      <c r="F173" s="38">
+      <c r="F173" s="36">
         <v>3.9890534999999998E-2</v>
       </c>
-      <c r="G173" s="38">
+      <c r="G173" s="36">
         <v>1.5077205E-2</v>
       </c>
     </row>
@@ -5895,13 +5891,13 @@
       <c r="D174" s="18">
         <v>7</v>
       </c>
-      <c r="E174" s="38">
+      <c r="E174" s="36">
         <v>0.35222857099999999</v>
       </c>
-      <c r="F174" s="38">
+      <c r="F174" s="36">
         <v>5.4801481999999999E-2</v>
       </c>
-      <c r="G174" s="38">
+      <c r="G174" s="36">
         <v>2.0713012999999999E-2</v>
       </c>
     </row>
@@ -5918,13 +5914,13 @@
       <c r="D175" s="18">
         <v>7</v>
       </c>
-      <c r="E175" s="38">
+      <c r="E175" s="36">
         <v>0.509271429</v>
       </c>
-      <c r="F175" s="38">
+      <c r="F175" s="36">
         <v>0.17569668699999999</v>
       </c>
-      <c r="G175" s="38">
+      <c r="G175" s="36">
         <v>6.6407105999999994E-2</v>
       </c>
     </row>
@@ -5941,13 +5937,13 @@
       <c r="D176" s="18">
         <v>7</v>
       </c>
-      <c r="E176" s="38">
+      <c r="E176" s="36">
         <v>1.2272571430000001</v>
       </c>
-      <c r="F176" s="38">
+      <c r="F176" s="36">
         <v>0.21957407100000001</v>
       </c>
-      <c r="G176" s="38">
+      <c r="G176" s="36">
         <v>8.2991198000000002E-2</v>
       </c>
     </row>
@@ -5964,13 +5960,13 @@
       <c r="D177" s="18">
         <v>7</v>
       </c>
-      <c r="E177" s="38">
+      <c r="E177" s="36">
         <v>0.93189999999999995</v>
       </c>
-      <c r="F177" s="38">
+      <c r="F177" s="36">
         <v>0.55830071299999995</v>
       </c>
-      <c r="G177" s="38">
+      <c r="G177" s="36">
         <v>0.21101783499999999</v>
       </c>
     </row>
@@ -5987,13 +5983,13 @@
       <c r="D178" s="18">
         <v>7</v>
       </c>
-      <c r="E178" s="38">
+      <c r="E178" s="36">
         <v>2.425142857</v>
       </c>
-      <c r="F178" s="38">
+      <c r="F178" s="36">
         <v>0.22607806799999999</v>
       </c>
-      <c r="G178" s="38">
+      <c r="G178" s="36">
         <v>8.5449477999999995E-2</v>
       </c>
     </row>
@@ -6010,13 +6006,13 @@
       <c r="D179" s="18">
         <v>7</v>
       </c>
-      <c r="E179" s="38">
+      <c r="E179" s="36">
         <v>0.850442857</v>
       </c>
-      <c r="F179" s="38">
+      <c r="F179" s="36">
         <v>0.40893428100000001</v>
       </c>
-      <c r="G179" s="38">
+      <c r="G179" s="36">
         <v>0.15456263000000001</v>
       </c>
     </row>
@@ -6033,13 +6029,13 @@
       <c r="D180" s="18">
         <v>7</v>
       </c>
-      <c r="E180" s="38">
+      <c r="E180" s="36">
         <v>2.756971429</v>
       </c>
-      <c r="F180" s="38">
+      <c r="F180" s="36">
         <v>1.5057626340000001</v>
       </c>
-      <c r="G180" s="38">
+      <c r="G180" s="36">
         <v>0.56912478</v>
       </c>
     </row>
@@ -6056,13 +6052,13 @@
       <c r="D181" s="18">
         <v>7</v>
       </c>
-      <c r="E181" s="38">
+      <c r="E181" s="36">
         <v>0.18177142900000001</v>
       </c>
-      <c r="F181" s="38">
+      <c r="F181" s="36">
         <v>5.5230809999999998E-2</v>
       </c>
-      <c r="G181" s="38">
+      <c r="G181" s="36">
         <v>2.0875284000000001E-2</v>
       </c>
     </row>
@@ -6079,13 +6075,13 @@
       <c r="D182" s="18">
         <v>7</v>
       </c>
-      <c r="E182" s="38">
+      <c r="E182" s="36">
         <v>0.49908571400000001</v>
       </c>
-      <c r="F182" s="38">
+      <c r="F182" s="36">
         <v>0.11787977500000001</v>
       </c>
-      <c r="G182" s="38">
+      <c r="G182" s="36">
         <v>4.4554366999999998E-2</v>
       </c>
     </row>
@@ -6102,13 +6098,13 @@
       <c r="D183" s="18">
         <v>7</v>
       </c>
-      <c r="E183" s="38">
+      <c r="E183" s="36">
         <v>0.50775714299999997</v>
       </c>
-      <c r="F183" s="38">
+      <c r="F183" s="36">
         <v>0.119910826</v>
       </c>
-      <c r="G183" s="38">
+      <c r="G183" s="36">
         <v>4.5322031999999998E-2</v>
       </c>
     </row>
@@ -6125,13 +6121,13 @@
       <c r="D184" s="18">
         <v>7</v>
       </c>
-      <c r="E184" s="38">
+      <c r="E184" s="36">
         <v>1.2420142860000001</v>
       </c>
-      <c r="F184" s="38">
+      <c r="F184" s="36">
         <v>0.248631571</v>
       </c>
-      <c r="G184" s="38">
+      <c r="G184" s="36">
         <v>9.3973900999999999E-2</v>
       </c>
     </row>
@@ -6148,13 +6144,13 @@
       <c r="D185" s="18">
         <v>7</v>
       </c>
-      <c r="E185" s="38">
+      <c r="E185" s="36">
         <v>1.047585714</v>
       </c>
-      <c r="F185" s="38">
+      <c r="F185" s="36">
         <v>0.52407497700000005</v>
       </c>
-      <c r="G185" s="38">
+      <c r="G185" s="36">
         <v>0.19808172199999999</v>
       </c>
     </row>
@@ -6171,13 +6167,13 @@
       <c r="D186" s="18">
         <v>7</v>
       </c>
-      <c r="E186" s="38">
+      <c r="E186" s="36">
         <v>3.920585714</v>
       </c>
-      <c r="F186" s="38">
+      <c r="F186" s="36">
         <v>1.8813152790000001</v>
       </c>
-      <c r="G186" s="38">
+      <c r="G186" s="36">
         <v>0.71107033799999997</v>
       </c>
     </row>
@@ -6194,13 +6190,13 @@
       <c r="D187" s="18">
         <v>7</v>
       </c>
-      <c r="E187" s="38">
+      <c r="E187" s="36">
         <v>0.191657143</v>
       </c>
-      <c r="F187" s="38">
+      <c r="F187" s="36">
         <v>7.4836552000000001E-2</v>
       </c>
-      <c r="G187" s="38">
+      <c r="G187" s="36">
         <v>2.8285557999999999E-2</v>
       </c>
     </row>
@@ -6217,13 +6213,13 @@
       <c r="D188" s="18">
         <v>7</v>
       </c>
-      <c r="E188" s="38">
+      <c r="E188" s="36">
         <v>0.52528571400000001</v>
       </c>
-      <c r="F188" s="38">
+      <c r="F188" s="36">
         <v>0.107204717</v>
       </c>
-      <c r="G188" s="38">
+      <c r="G188" s="36">
         <v>4.0519575000000002E-2</v>
       </c>
     </row>
@@ -6240,13 +6236,13 @@
       <c r="D189" s="18">
         <v>7</v>
       </c>
-      <c r="E189" s="38">
+      <c r="E189" s="36">
         <v>2.4400857139999999</v>
       </c>
-      <c r="F189" s="38">
+      <c r="F189" s="36">
         <v>1.291267645</v>
       </c>
-      <c r="G189" s="38">
+      <c r="G189" s="36">
         <v>0.488053295</v>
       </c>
     </row>
@@ -6263,13 +6259,13 @@
       <c r="D190" s="18">
         <v>7</v>
       </c>
-      <c r="E190" s="38">
+      <c r="E190" s="36">
         <v>2.9252142860000001</v>
       </c>
-      <c r="F190" s="38">
+      <c r="F190" s="36">
         <v>0.31252290300000002</v>
       </c>
-      <c r="G190" s="38">
+      <c r="G190" s="36">
         <v>0.118122554</v>
       </c>
     </row>
@@ -6286,13 +6282,13 @@
       <c r="D191" s="18">
         <v>7</v>
       </c>
-      <c r="E191" s="38">
+      <c r="E191" s="36">
         <v>1.0626285710000001</v>
       </c>
-      <c r="F191" s="38">
+      <c r="F191" s="36">
         <v>0.29662071000000001</v>
       </c>
-      <c r="G191" s="38">
+      <c r="G191" s="36">
         <v>0.11211209</v>
       </c>
     </row>
@@ -6309,13 +6305,13 @@
       <c r="D192" s="18">
         <v>7</v>
       </c>
-      <c r="E192" s="38">
+      <c r="E192" s="36">
         <v>1.7805285710000001</v>
       </c>
-      <c r="F192" s="38">
+      <c r="F192" s="36">
         <v>0.33694891199999999</v>
       </c>
-      <c r="G192" s="38">
+      <c r="G192" s="36">
         <v>0.12735471800000001</v>
       </c>
     </row>
@@ -6332,13 +6328,13 @@
       <c r="D193" s="18">
         <v>7</v>
       </c>
-      <c r="E193" s="38">
+      <c r="E193" s="36">
         <v>2.1999857139999999</v>
       </c>
-      <c r="F193" s="38">
+      <c r="F193" s="36">
         <v>1.2495100180000001</v>
       </c>
-      <c r="G193" s="38">
+      <c r="G193" s="36">
         <v>0.47227039500000001</v>
       </c>
     </row>
@@ -6355,13 +6351,13 @@
       <c r="D194" s="18">
         <v>7</v>
       </c>
-      <c r="E194" s="38">
+      <c r="E194" s="36">
         <v>3.7857571430000001</v>
       </c>
-      <c r="F194" s="38">
+      <c r="F194" s="36">
         <v>0.99557172999999999</v>
       </c>
-      <c r="G194" s="38">
+      <c r="G194" s="36">
         <v>0.37629074400000001</v>
       </c>
     </row>
@@ -6378,13 +6374,13 @@
       <c r="D195" s="18">
         <v>7</v>
       </c>
-      <c r="E195" s="38">
+      <c r="E195" s="36">
         <v>1.8737428570000001</v>
       </c>
-      <c r="F195" s="38">
+      <c r="F195" s="36">
         <v>0.84415653899999998</v>
       </c>
-      <c r="G195" s="38">
+      <c r="G195" s="36">
         <v>0.319061182</v>
       </c>
     </row>
@@ -6401,13 +6397,13 @@
       <c r="D196" s="18">
         <v>7</v>
       </c>
-      <c r="E196" s="38">
+      <c r="E196" s="36">
         <v>7.0365285709999998</v>
       </c>
-      <c r="F196" s="38">
+      <c r="F196" s="36">
         <v>2.426565734</v>
       </c>
-      <c r="G196" s="38">
+      <c r="G196" s="36">
         <v>0.91715563899999997</v>
       </c>
     </row>
@@ -6424,13 +6420,13 @@
       <c r="D197" s="18">
         <v>7</v>
       </c>
-      <c r="E197" s="38">
+      <c r="E197" s="36">
         <v>0.30118571399999999</v>
       </c>
-      <c r="F197" s="38">
+      <c r="F197" s="36">
         <v>5.2036155000000001E-2</v>
       </c>
-      <c r="G197" s="38">
+      <c r="G197" s="36">
         <v>1.9667818E-2</v>
       </c>
     </row>
@@ -6447,13 +6443,13 @@
       <c r="D198" s="18">
         <v>7</v>
       </c>
-      <c r="E198" s="38">
+      <c r="E198" s="36">
         <v>0.52545714300000002</v>
       </c>
-      <c r="F198" s="38">
+      <c r="F198" s="36">
         <v>8.5492122000000004E-2</v>
       </c>
-      <c r="G198" s="38">
+      <c r="G198" s="36">
         <v>3.2312985000000002E-2</v>
       </c>
     </row>
@@ -6470,13 +6466,13 @@
       <c r="D199" s="18">
         <v>7</v>
       </c>
-      <c r="E199" s="38">
+      <c r="E199" s="36">
         <v>0.163142857</v>
       </c>
-      <c r="F199" s="38">
+      <c r="F199" s="36">
         <v>2.9383718E-2</v>
       </c>
-      <c r="G199" s="38">
+      <c r="G199" s="36">
         <v>1.1106001000000001E-2</v>
       </c>
     </row>
@@ -6493,13 +6489,13 @@
       <c r="D200" s="18">
         <v>7</v>
       </c>
-      <c r="E200" s="38">
+      <c r="E200" s="36">
         <v>0.34744285699999999</v>
       </c>
-      <c r="F200" s="38">
+      <c r="F200" s="36">
         <v>7.7296504000000002E-2</v>
       </c>
-      <c r="G200" s="38">
+      <c r="G200" s="36">
         <v>2.9215332E-2</v>
       </c>
     </row>
@@ -6516,13 +6512,13 @@
       <c r="D201" s="18">
         <v>7</v>
       </c>
-      <c r="E201" s="38">
+      <c r="E201" s="36">
         <v>0.332371429</v>
       </c>
-      <c r="F201" s="38">
+      <c r="F201" s="36">
         <v>7.0511150999999994E-2</v>
       </c>
-      <c r="G201" s="38">
+      <c r="G201" s="36">
         <v>2.6650710000000001E-2</v>
       </c>
     </row>
@@ -6539,13 +6535,13 @@
       <c r="D202" s="18">
         <v>7</v>
       </c>
-      <c r="E202" s="38">
+      <c r="E202" s="36">
         <v>1.0025714290000001</v>
       </c>
-      <c r="F202" s="38">
+      <c r="F202" s="36">
         <v>9.8851062000000003E-2</v>
       </c>
-      <c r="G202" s="38">
+      <c r="G202" s="36">
         <v>3.7362188999999997E-2</v>
       </c>
     </row>
@@ -6562,13 +6558,13 @@
       <c r="D203" s="18">
         <v>7</v>
       </c>
-      <c r="E203" s="38">
+      <c r="E203" s="36">
         <v>0.37541428599999999</v>
       </c>
-      <c r="F203" s="38">
+      <c r="F203" s="36">
         <v>0.12843534600000001</v>
       </c>
-      <c r="G203" s="38">
+      <c r="G203" s="36">
         <v>4.8543997999999998E-2</v>
       </c>
     </row>
@@ -6585,13 +6581,13 @@
       <c r="D204" s="18">
         <v>7</v>
       </c>
-      <c r="E204" s="38">
+      <c r="E204" s="36">
         <v>0.56027142900000004</v>
       </c>
-      <c r="F204" s="38">
+      <c r="F204" s="36">
         <v>0.30073060899999998</v>
       </c>
-      <c r="G204" s="38">
+      <c r="G204" s="36">
         <v>0.113665486</v>
       </c>
     </row>
@@ -6608,13 +6604,13 @@
       <c r="D205" s="18">
         <v>7</v>
       </c>
-      <c r="E205" s="38">
+      <c r="E205" s="36">
         <v>1.2614286000000001E-2</v>
       </c>
-      <c r="F205" s="38">
+      <c r="F205" s="36">
         <v>5.5508040000000003E-3</v>
       </c>
-      <c r="G205" s="38">
+      <c r="G205" s="36">
         <v>2.0980069999999998E-3</v>
       </c>
     </row>
@@ -6631,13 +6627,13 @@
       <c r="D206" s="18">
         <v>7</v>
       </c>
-      <c r="E206" s="38">
+      <c r="E206" s="36">
         <v>0.105357143</v>
       </c>
-      <c r="F206" s="38">
+      <c r="F206" s="36">
         <v>1.9237278E-2</v>
       </c>
-      <c r="G206" s="38">
+      <c r="G206" s="36">
         <v>7.2710079999999998E-3</v>
       </c>
     </row>
@@ -6654,13 +6650,13 @@
       <c r="D207" s="18">
         <v>7</v>
       </c>
-      <c r="E207" s="38">
+      <c r="E207" s="36">
         <v>1.2142857E-2</v>
       </c>
-      <c r="F207" s="38">
+      <c r="F207" s="36">
         <v>5.6529809999999996E-3</v>
       </c>
-      <c r="G207" s="38">
+      <c r="G207" s="36">
         <v>2.136626E-3</v>
       </c>
     </row>
@@ -6677,13 +6673,13 @@
       <c r="D208" s="18">
         <v>7</v>
       </c>
-      <c r="E208" s="38">
+      <c r="E208" s="36">
         <v>0.10855714299999999</v>
       </c>
-      <c r="F208" s="38">
+      <c r="F208" s="36">
         <v>3.6580178999999997E-2</v>
       </c>
-      <c r="G208" s="38">
+      <c r="G208" s="36">
         <v>1.3826008000000001E-2</v>
       </c>
     </row>
@@ -6700,13 +6696,13 @@
       <c r="D209" s="18">
         <v>7</v>
       </c>
-      <c r="E209" s="38">
+      <c r="E209" s="36">
         <v>0.23635714299999999</v>
       </c>
-      <c r="F209" s="38">
+      <c r="F209" s="36">
         <v>3.2456682000000001E-2</v>
       </c>
-      <c r="G209" s="38">
+      <c r="G209" s="36">
         <v>1.2267472999999999E-2</v>
       </c>
     </row>
@@ -6723,13 +6719,13 @@
       <c r="D210" s="18">
         <v>7</v>
       </c>
-      <c r="E210" s="38">
+      <c r="E210" s="36">
         <v>0.53418571400000003</v>
       </c>
-      <c r="F210" s="38">
+      <c r="F210" s="36">
         <v>6.5173242000000006E-2</v>
       </c>
-      <c r="G210" s="38">
+      <c r="G210" s="36">
         <v>2.4633169999999999E-2</v>
       </c>
     </row>
@@ -6746,13 +6742,13 @@
       <c r="D211" s="18">
         <v>7</v>
       </c>
-      <c r="E211" s="38">
+      <c r="E211" s="36">
         <v>0.44624285699999999</v>
       </c>
-      <c r="F211" s="38">
+      <c r="F211" s="36">
         <v>0.12006027499999999</v>
       </c>
-      <c r="G211" s="38">
+      <c r="G211" s="36">
         <v>4.5378518E-2</v>
       </c>
     </row>
@@ -6769,13 +6765,13 @@
       <c r="D212" s="18">
         <v>7</v>
       </c>
-      <c r="E212" s="38">
+      <c r="E212" s="36">
         <v>1.2273000000000001</v>
       </c>
-      <c r="F212" s="38">
+      <c r="F212" s="36">
         <v>0.1783633</v>
       </c>
-      <c r="G212" s="38">
+      <c r="G212" s="36">
         <v>6.7414990999999994E-2</v>
       </c>
     </row>
@@ -6792,13 +6788,13 @@
       <c r="D213" s="18">
         <v>7</v>
       </c>
-      <c r="E213" s="38">
+      <c r="E213" s="36">
         <v>0.61821428599999995</v>
       </c>
-      <c r="F213" s="38">
+      <c r="F213" s="36">
         <v>0.22403590100000001</v>
       </c>
-      <c r="G213" s="38">
+      <c r="G213" s="36">
         <v>8.4677611E-2</v>
       </c>
     </row>
@@ -6815,13 +6811,13 @@
       <c r="D214" s="18">
         <v>7</v>
       </c>
-      <c r="E214" s="38">
+      <c r="E214" s="36">
         <v>1.4593285709999999</v>
       </c>
-      <c r="F214" s="38">
+      <c r="F214" s="36">
         <v>0.67685568100000004</v>
       </c>
-      <c r="G214" s="38">
+      <c r="G214" s="36">
         <v>0.25582740100000001</v>
       </c>
     </row>
@@ -6838,13 +6834,13 @@
       <c r="D215" s="18">
         <v>7</v>
       </c>
-      <c r="E215" s="38">
+      <c r="E215" s="36">
         <v>3.6214285999999998E-2</v>
       </c>
-      <c r="F215" s="38">
+      <c r="F215" s="36">
         <v>8.462944E-3</v>
       </c>
-      <c r="G215" s="38">
+      <c r="G215" s="36">
         <v>3.1986919999999999E-3</v>
       </c>
     </row>
@@ -6861,13 +6857,13 @@
       <c r="D216" s="18">
         <v>7</v>
       </c>
-      <c r="E216" s="38">
+      <c r="E216" s="36">
         <v>0.20087142899999999</v>
       </c>
-      <c r="F216" s="38">
+      <c r="F216" s="36">
         <v>4.1728196000000002E-2</v>
       </c>
-      <c r="G216" s="38">
+      <c r="G216" s="36">
         <v>1.5771776000000001E-2</v>
       </c>
     </row>
@@ -6884,13 +6880,13 @@
       <c r="D217" s="18">
         <v>7</v>
       </c>
-      <c r="E217" s="38">
+      <c r="E217" s="36">
         <v>0.3019</v>
       </c>
-      <c r="F217" s="38">
+      <c r="F217" s="36">
         <v>0.10305600400000001</v>
       </c>
-      <c r="G217" s="38">
+      <c r="G217" s="36">
         <v>3.8951508000000003E-2</v>
       </c>
     </row>
@@ -6907,13 +6903,13 @@
       <c r="D218" s="18">
         <v>7</v>
       </c>
-      <c r="E218" s="38">
+      <c r="E218" s="36">
         <v>0.64392857100000001</v>
       </c>
-      <c r="F218" s="38">
+      <c r="F218" s="36">
         <v>0.17869891500000001</v>
       </c>
-      <c r="G218" s="38">
+      <c r="G218" s="36">
         <v>6.7541841000000005E-2</v>
       </c>
     </row>
@@ -6930,13 +6926,13 @@
       <c r="D219" s="18">
         <v>7</v>
       </c>
-      <c r="E219" s="38">
+      <c r="E219" s="36">
         <v>0.65154285700000003</v>
       </c>
-      <c r="F219" s="38">
+      <c r="F219" s="36">
         <v>0.23468555499999999</v>
       </c>
-      <c r="G219" s="38">
+      <c r="G219" s="36">
         <v>8.8702801999999997E-2</v>
       </c>
     </row>
@@ -6953,13 +6949,13 @@
       <c r="D220" s="18">
         <v>7</v>
       </c>
-      <c r="E220" s="38">
+      <c r="E220" s="36">
         <v>1.7507428570000001</v>
       </c>
-      <c r="F220" s="38">
+      <c r="F220" s="36">
         <v>0.64331317099999996</v>
       </c>
-      <c r="G220" s="38">
+      <c r="G220" s="36">
         <v>0.24314952400000001</v>
       </c>
     </row>
@@ -6976,13 +6972,13 @@
       <c r="D221" s="18">
         <v>7</v>
       </c>
-      <c r="E221" s="38">
+      <c r="E221" s="36">
         <v>0.84958571400000005</v>
       </c>
-      <c r="F221" s="38">
+      <c r="F221" s="36">
         <v>0.41566845099999999</v>
       </c>
-      <c r="G221" s="38">
+      <c r="G221" s="36">
         <v>0.15710790699999999</v>
       </c>
     </row>
@@ -6999,13 +6995,13 @@
       <c r="D222" s="18">
         <v>7</v>
       </c>
-      <c r="E222" s="38">
+      <c r="E222" s="36">
         <v>1.6486142859999999</v>
       </c>
-      <c r="F222" s="38">
+      <c r="F222" s="36">
         <v>0.37947570600000002</v>
       </c>
-      <c r="G222" s="38">
+      <c r="G222" s="36">
         <v>0.14342833499999999</v>
       </c>
     </row>
@@ -7022,13 +7018,13 @@
       <c r="D223" s="18">
         <v>7</v>
       </c>
-      <c r="E223" s="38">
+      <c r="E223" s="36">
         <v>0.3836</v>
       </c>
-      <c r="F223" s="38">
+      <c r="F223" s="36">
         <v>9.6443386000000006E-2</v>
       </c>
-      <c r="G223" s="38">
+      <c r="G223" s="36">
         <v>3.6452172999999997E-2</v>
       </c>
     </row>
@@ -7045,13 +7041,13 @@
       <c r="D224" s="18">
         <v>7</v>
       </c>
-      <c r="E224" s="38">
+      <c r="E224" s="36">
         <v>0.88755714299999999</v>
       </c>
-      <c r="F224" s="38">
+      <c r="F224" s="36">
         <v>0.16925284700000001</v>
       </c>
-      <c r="G224" s="38">
+      <c r="G224" s="36">
         <v>6.3971562999999995E-2</v>
       </c>
     </row>
@@ -7068,13 +7064,13 @@
       <c r="D225" s="18">
         <v>7</v>
       </c>
-      <c r="E225" s="38">
+      <c r="E225" s="36">
         <v>0.84930000000000005</v>
       </c>
-      <c r="F225" s="38">
+      <c r="F225" s="36">
         <v>0.35505120299999998</v>
       </c>
-      <c r="G225" s="38">
+      <c r="G225" s="36">
         <v>0.13419674100000001</v>
       </c>
     </row>
@@ -7091,13 +7087,13 @@
       <c r="D226" s="18">
         <v>7</v>
       </c>
-      <c r="E226" s="38">
+      <c r="E226" s="36">
         <v>1.922271429</v>
       </c>
-      <c r="F226" s="38">
+      <c r="F226" s="36">
         <v>0.45561312100000001</v>
       </c>
-      <c r="G226" s="38">
+      <c r="G226" s="36">
         <v>0.172205573</v>
       </c>
     </row>
@@ -7114,13 +7110,13 @@
       <c r="D227" s="18">
         <v>7</v>
       </c>
-      <c r="E227" s="38">
+      <c r="E227" s="36">
         <v>0.65197142900000005</v>
       </c>
-      <c r="F227" s="38">
+      <c r="F227" s="36">
         <v>0.41504741000000001</v>
       </c>
-      <c r="G227" s="38">
+      <c r="G227" s="36">
         <v>0.156873176</v>
       </c>
     </row>
@@ -7137,13 +7133,13 @@
       <c r="D228" s="18">
         <v>7</v>
       </c>
-      <c r="E228" s="38">
+      <c r="E228" s="36">
         <v>1.708514286</v>
       </c>
-      <c r="F228" s="38">
+      <c r="F228" s="36">
         <v>1.192336515</v>
       </c>
-      <c r="G228" s="38">
+      <c r="G228" s="36">
         <v>0.45066084299999998</v>
       </c>
     </row>
@@ -7160,13 +7156,13 @@
       <c r="D229" s="18">
         <v>7</v>
       </c>
-      <c r="E229" s="38">
+      <c r="E229" s="36">
         <v>9.1342857E-2</v>
       </c>
-      <c r="F229" s="38">
+      <c r="F229" s="36">
         <v>2.1287543999999999E-2</v>
       </c>
-      <c r="G229" s="38">
+      <c r="G229" s="36">
         <v>8.0459350000000006E-3</v>
       </c>
     </row>
@@ -7183,13 +7179,13 @@
       <c r="D230" s="18">
         <v>7</v>
       </c>
-      <c r="E230" s="38">
+      <c r="E230" s="36">
         <v>0.2984</v>
       </c>
-      <c r="F230" s="38">
+      <c r="F230" s="36">
         <v>5.1562130999999997E-2</v>
       </c>
-      <c r="G230" s="38">
+      <c r="G230" s="36">
         <v>1.9488654000000001E-2</v>
       </c>
     </row>
@@ -7206,13 +7202,13 @@
       <c r="D231" s="18">
         <v>7</v>
       </c>
-      <c r="E231" s="38">
+      <c r="E231" s="36">
         <v>0.45072857100000002</v>
       </c>
-      <c r="F231" s="38">
+      <c r="F231" s="36">
         <v>0.17593058</v>
       </c>
-      <c r="G231" s="38">
+      <c r="G231" s="36">
         <v>6.6495508999999994E-2</v>
       </c>
     </row>
@@ -7229,13 +7225,13 @@
       <c r="D232" s="18">
         <v>7</v>
       </c>
-      <c r="E232" s="38">
+      <c r="E232" s="36">
         <v>0.98504285700000005</v>
       </c>
-      <c r="F232" s="38">
+      <c r="F232" s="36">
         <v>0.13650252600000001</v>
       </c>
-      <c r="G232" s="38">
+      <c r="G232" s="36">
         <v>5.1593105E-2</v>
       </c>
     </row>
@@ -7252,13 +7248,13 @@
       <c r="D233" s="18">
         <v>7</v>
       </c>
-      <c r="E233" s="38">
+      <c r="E233" s="36">
         <v>1.1223000000000001</v>
       </c>
-      <c r="F233" s="38">
+      <c r="F233" s="36">
         <v>0.70916748399999996</v>
       </c>
-      <c r="G233" s="38">
+      <c r="G233" s="36">
         <v>0.268040114</v>
       </c>
     </row>
@@ -7275,13 +7271,13 @@
       <c r="D234" s="18">
         <v>7</v>
       </c>
-      <c r="E234" s="38">
+      <c r="E234" s="36">
         <v>1.7840714289999999</v>
       </c>
-      <c r="F234" s="38">
+      <c r="F234" s="36">
         <v>0.42628760100000002</v>
       </c>
-      <c r="G234" s="38">
+      <c r="G234" s="36">
         <v>0.16112156899999999</v>
       </c>
     </row>
@@ -7298,13 +7294,13 @@
       <c r="D235" s="18">
         <v>7</v>
       </c>
-      <c r="E235" s="38">
+      <c r="E235" s="36">
         <v>1.0581142859999999</v>
       </c>
-      <c r="F235" s="38">
+      <c r="F235" s="36">
         <v>0.29924604900000001</v>
       </c>
-      <c r="G235" s="38">
+      <c r="G235" s="36">
         <v>0.11310437499999999</v>
       </c>
     </row>
@@ -7321,13 +7317,13 @@
       <c r="D236" s="18">
         <v>7</v>
       </c>
-      <c r="E236" s="38">
+      <c r="E236" s="36">
         <v>2.8140000000000001</v>
       </c>
-      <c r="F236" s="38">
+      <c r="F236" s="36">
         <v>0.93637106599999997</v>
       </c>
-      <c r="G236" s="38">
+      <c r="G236" s="36">
         <v>0.35391499700000001</v>
       </c>
     </row>
@@ -7344,13 +7340,13 @@
       <c r="D237" s="18">
         <v>7</v>
       </c>
-      <c r="E237" s="38">
+      <c r="E237" s="36">
         <v>0.117542857</v>
       </c>
-      <c r="F237" s="38">
+      <c r="F237" s="36">
         <v>3.4660681999999998E-2</v>
       </c>
-      <c r="G237" s="38">
+      <c r="G237" s="36">
         <v>1.3100506E-2</v>
       </c>
     </row>
@@ -7367,13 +7363,13 @@
       <c r="D238" s="18">
         <v>7</v>
       </c>
-      <c r="E238" s="38">
+      <c r="E238" s="36">
         <v>0.30617142899999999</v>
       </c>
-      <c r="F238" s="38">
+      <c r="F238" s="36">
         <v>7.9759653999999999E-2</v>
       </c>
-      <c r="G238" s="38">
+      <c r="G238" s="36">
         <v>3.0146315999999999E-2</v>
       </c>
     </row>
@@ -7390,13 +7386,13 @@
       <c r="D239" s="18">
         <v>7</v>
       </c>
-      <c r="E239" s="38">
+      <c r="E239" s="36">
         <v>0.58824285700000001</v>
       </c>
-      <c r="F239" s="38">
+      <c r="F239" s="36">
         <v>0.162692172</v>
       </c>
-      <c r="G239" s="38">
+      <c r="G239" s="36">
         <v>6.1491861000000002E-2</v>
       </c>
     </row>
@@ -7413,13 +7409,13 @@
       <c r="D240" s="18">
         <v>7</v>
       </c>
-      <c r="E240" s="38">
+      <c r="E240" s="36">
         <v>1.3228857140000001</v>
       </c>
-      <c r="F240" s="38">
+      <c r="F240" s="36">
         <v>0.23963636599999999</v>
       </c>
-      <c r="G240" s="38">
+      <c r="G240" s="36">
         <v>9.0574032999999998E-2</v>
       </c>
     </row>
@@ -7436,13 +7432,13 @@
       <c r="D241" s="18">
         <v>7</v>
       </c>
-      <c r="E241" s="38">
+      <c r="E241" s="36">
         <v>1.234457143</v>
       </c>
-      <c r="F241" s="38">
+      <c r="F241" s="36">
         <v>0.65756830499999996</v>
       </c>
-      <c r="G241" s="38">
+      <c r="G241" s="36">
         <v>0.24853745799999999</v>
       </c>
     </row>
@@ -7459,13 +7455,13 @@
       <c r="D242" s="18">
         <v>7</v>
       </c>
-      <c r="E242" s="38">
+      <c r="E242" s="36">
         <v>3.6071857139999999</v>
       </c>
-      <c r="F242" s="38">
+      <c r="F242" s="36">
         <v>1.765052023</v>
       </c>
-      <c r="G242" s="38">
+      <c r="G242" s="36">
         <v>0.66712695799999999</v>
       </c>
     </row>
@@ -7482,13 +7478,13 @@
       <c r="D243" s="18">
         <v>7</v>
       </c>
-      <c r="E243" s="38">
+      <c r="E243" s="36">
         <v>0.20182857100000001</v>
       </c>
-      <c r="F243" s="38">
+      <c r="F243" s="36">
         <v>4.9040041999999999E-2</v>
       </c>
-      <c r="G243" s="38">
+      <c r="G243" s="36">
         <v>1.8535394E-2</v>
       </c>
     </row>
@@ -7505,13 +7501,13 @@
       <c r="D244" s="18">
         <v>7</v>
       </c>
-      <c r="E244" s="38">
+      <c r="E244" s="36">
         <v>0.40208571399999998</v>
       </c>
-      <c r="F244" s="38">
+      <c r="F244" s="36">
         <v>8.4760711000000002E-2</v>
       </c>
-      <c r="G244" s="38">
+      <c r="G244" s="36">
         <v>3.2036536999999997E-2</v>
       </c>
     </row>
@@ -7528,13 +7524,13 @@
       <c r="D245" s="18">
         <v>7</v>
       </c>
-      <c r="E245" s="38">
+      <c r="E245" s="36">
         <v>1.1486285709999999</v>
       </c>
-      <c r="F245" s="38">
+      <c r="F245" s="36">
         <v>0.64043282700000004</v>
       </c>
-      <c r="G245" s="38">
+      <c r="G245" s="36">
         <v>0.24206085599999999</v>
       </c>
     </row>
@@ -7551,13 +7547,13 @@
       <c r="D246" s="18">
         <v>7</v>
       </c>
-      <c r="E246" s="38">
+      <c r="E246" s="36">
         <v>2.9083428570000001</v>
       </c>
-      <c r="F246" s="38">
+      <c r="F246" s="36">
         <v>0.80878293300000004</v>
       </c>
-      <c r="G246" s="38">
+      <c r="G246" s="36">
         <v>0.30569121500000002</v>
       </c>
     </row>
@@ -7574,13 +7570,13 @@
       <c r="D247" s="18">
         <v>7</v>
       </c>
-      <c r="E247" s="38">
+      <c r="E247" s="36">
         <v>0.89818571400000002</v>
       </c>
-      <c r="F247" s="38">
+      <c r="F247" s="36">
         <v>0.15584166599999999</v>
       </c>
-      <c r="G247" s="38">
+      <c r="G247" s="36">
         <v>5.8902612999999999E-2</v>
       </c>
     </row>
@@ -7597,13 +7593,13 @@
       <c r="D248" s="18">
         <v>7</v>
       </c>
-      <c r="E248" s="38">
+      <c r="E248" s="36">
         <v>1.5133571429999999</v>
       </c>
-      <c r="F248" s="38">
+      <c r="F248" s="36">
         <v>0.28827795499999997</v>
       </c>
-      <c r="G248" s="38">
+      <c r="G248" s="36">
         <v>0.108958825</v>
       </c>
     </row>
@@ -7620,13 +7616,13 @@
       <c r="D249" s="18">
         <v>7</v>
       </c>
-      <c r="E249" s="38">
+      <c r="E249" s="36">
         <v>2.1476857140000001</v>
       </c>
-      <c r="F249" s="38">
+      <c r="F249" s="36">
         <v>0.71920553499999995</v>
       </c>
-      <c r="G249" s="38">
+      <c r="G249" s="36">
         <v>0.27183414099999997</v>
       </c>
     </row>
@@ -7643,13 +7639,13 @@
       <c r="D250" s="18">
         <v>7</v>
       </c>
-      <c r="E250" s="38">
+      <c r="E250" s="36">
         <v>3.2689428569999999</v>
       </c>
-      <c r="F250" s="38">
+      <c r="F250" s="36">
         <v>0.44825114900000002</v>
       </c>
-      <c r="G250" s="38">
+      <c r="G250" s="36">
         <v>0.16942300900000001</v>
       </c>
     </row>
@@ -7666,13 +7662,13 @@
       <c r="D251" s="18">
         <v>7</v>
       </c>
-      <c r="E251" s="38">
+      <c r="E251" s="36">
         <v>2.3029428570000001</v>
       </c>
-      <c r="F251" s="38">
+      <c r="F251" s="36">
         <v>0.47737949600000001</v>
       </c>
-      <c r="G251" s="38">
+      <c r="G251" s="36">
         <v>0.180432489</v>
       </c>
     </row>
@@ -7689,13 +7685,13 @@
       <c r="D252" s="18">
         <v>7</v>
       </c>
-      <c r="E252" s="38">
+      <c r="E252" s="36">
         <v>6.2228000000000003</v>
       </c>
-      <c r="F252" s="38">
+      <c r="F252" s="36">
         <v>1.208290393</v>
       </c>
-      <c r="G252" s="38">
+      <c r="G252" s="36">
         <v>0.45669084199999999</v>
       </c>
     </row>
@@ -7712,13 +7708,13 @@
       <c r="D253" s="18">
         <v>7</v>
       </c>
-      <c r="E253" s="38">
+      <c r="E253" s="36">
         <v>0.231771429</v>
       </c>
-      <c r="F253" s="38">
+      <c r="F253" s="36">
         <v>8.5014091E-2</v>
       </c>
-      <c r="G253" s="38">
+      <c r="G253" s="36">
         <v>3.2132305999999999E-2</v>
       </c>
     </row>
@@ -7735,13 +7731,13 @@
       <c r="D254" s="18">
         <v>7</v>
       </c>
-      <c r="E254" s="38">
+      <c r="E254" s="36">
         <v>0.3337</v>
       </c>
-      <c r="F254" s="38">
+      <c r="F254" s="36">
         <v>0.118785479</v>
       </c>
-      <c r="G254" s="38">
+      <c r="G254" s="36">
         <v>4.4896691000000002E-2</v>
       </c>
     </row>
@@ -9545,7 +9541,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="31" t="s">
+      <c r="A39" t="s">
         <v>90</v>
       </c>
     </row>
@@ -14773,7 +14769,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -14799,7 +14795,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -14825,7 +14821,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -14851,7 +14847,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -14937,7 +14933,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -14963,7 +14959,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -14989,7 +14985,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -15015,7 +15011,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -15041,13 +15037,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="37"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
+      <c r="A19" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
@@ -15110,7 +15100,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -15136,7 +15126,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -15162,7 +15152,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -15188,7 +15178,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -15274,7 +15264,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -15300,7 +15290,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -15326,7 +15316,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -15352,7 +15342,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -15378,13 +15368,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="37"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
+      <c r="A36" s="35"/>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
@@ -15447,7 +15431,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -15473,7 +15457,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -15499,7 +15483,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -15525,7 +15509,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -15611,7 +15595,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -15637,7 +15621,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -15663,7 +15647,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -15689,7 +15673,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B52" s="14" t="s">
@@ -15715,13 +15699,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="37"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
+      <c r="A53" s="35"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
@@ -15784,7 +15762,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -15810,7 +15788,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -15836,7 +15814,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -15862,7 +15840,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B61" s="14" t="s">
@@ -15948,7 +15926,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -15974,7 +15952,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -16000,7 +15978,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -16026,7 +16004,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B69" s="14" t="s">
@@ -20335,14 +20313,13 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.26953125" style="19" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" style="3"/>
-    <col min="3" max="5" width="9.1796875" style="32"/>
-    <col min="6" max="12" width="9.1796875" style="4"/>
+    <col min="3" max="12" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -20436,19 +20413,19 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -20474,19 +20451,19 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -20512,19 +20489,19 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -20550,7 +20527,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="26" t="s">
@@ -20634,19 +20611,19 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -20672,19 +20649,19 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -20710,19 +20687,19 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -20748,7 +20725,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -20786,14 +20763,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+      <c r="A17" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
@@ -20842,19 +20812,19 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -20880,19 +20850,19 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -20918,19 +20888,19 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -20956,7 +20926,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -21040,19 +21010,19 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -21078,19 +21048,19 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -21116,19 +21086,19 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -21154,7 +21124,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="26" t="s">
@@ -21192,14 +21162,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="37"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
+      <c r="A32" s="35"/>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
@@ -21248,19 +21211,19 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -21286,19 +21249,19 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -21324,19 +21287,19 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -21362,7 +21325,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="26" t="s">
@@ -21446,19 +21409,19 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -21484,19 +21447,19 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -21522,19 +21485,19 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -21560,7 +21523,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B46" s="26" t="s">
@@ -21598,14 +21561,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="37"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
+      <c r="A47" s="35"/>
     </row>
     <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
@@ -21654,19 +21610,19 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F51" s="4" t="s">
@@ -21692,19 +21648,19 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -21730,19 +21686,19 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E53" s="32" t="s">
+      <c r="E53" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -21768,7 +21724,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B54" s="26" t="s">
@@ -21852,19 +21808,19 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="E58" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -21890,19 +21846,19 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D59" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E59" s="32" t="s">
+      <c r="E59" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F59" s="4" t="s">
@@ -21928,19 +21884,19 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E60" s="32" t="s">
+      <c r="E60" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F60" s="4" t="s">
@@ -21966,7 +21922,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B61" s="26" t="s">
